--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A50A475-12D5-4FFB-8E2B-5D57A94AB8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6F0EF-55CC-4C28-95F6-6E743E56F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2997,7 +2997,7 @@
       <pane xSplit="12" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,23 +3363,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="58">
-        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("F6:F"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="G7" s="58">
-        <f ca="1">SUM(INDIRECT("F6:F"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="H7" s="58">
-        <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="I7" s="58">
-        <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="J7" s="58">
-        <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("J6:J"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="K7" s="58">

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6F0EF-55CC-4C28-95F6-6E743E56F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF34D9-7594-422D-957B-3E182D258E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -738,6 +744,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2993,11 +3008,11 @@
   </sheetPr>
   <dimension ref="A1:AD3064"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="12" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,7 +3215,7 @@
       <c r="E4" s="31">
         <v>5</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="94">
         <v>6</v>
       </c>
       <c r="G4" s="31">
@@ -3218,7 +3233,7 @@
       <c r="K4" s="31">
         <v>11</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="61">
         <v>12</v>
       </c>
       <c r="M4" s="31">
@@ -3254,7 +3269,7 @@
       <c r="W4" s="31">
         <v>23</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="61">
         <v>24</v>
       </c>
       <c r="Y4" s="31">
@@ -6692,11 +6707,11 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="14" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,7 +6820,7 @@
       <c r="D4" s="34">
         <v>4</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="96">
         <v>6</v>
       </c>
       <c r="F4" s="34">
@@ -6817,13 +6832,13 @@
       <c r="H4" s="34">
         <v>9</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="95">
         <v>10</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="95">
         <v>11</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="95">
         <v>12</v>
       </c>
       <c r="L4" s="34">

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CF34D9-7594-422D-957B-3E182D258E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932441E8-0EF9-4022-8377-806B156E3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
     <sheet name="Книговыдача" sheetId="3" r:id="rId2"/>
     <sheet name="Массовые мероприятия" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -66,12 +55,6 @@
   </si>
   <si>
     <t>Дети (до 14 л.)</t>
-  </si>
-  <si>
-    <t>Молодежь (15-35 л.)</t>
-  </si>
-  <si>
-    <t>Прочие 35+</t>
   </si>
   <si>
     <t>Пенсионеры</t>
@@ -234,6 +217,12 @@
   </si>
   <si>
     <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (7+8+9+10+11)      гр.1 </t>
+  </si>
+  <si>
+    <t>Молодежь (15-30 л.)</t>
+  </si>
+  <si>
+    <t>Прочие 30+</t>
   </si>
 </sst>
 </file>
@@ -668,6 +657,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -744,15 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1067,7 @@
       <pane xSplit="16" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1098,73 +1087,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="64" t="s">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="73" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1174,50 +1163,50 @@
       <c r="N3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="G4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="H4" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>15</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+        <v>15</v>
+      </c>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
     </row>
     <row r="5" spans="1:16" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -1271,7 +1260,7 @@
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="8"/>
@@ -1309,7 +1298,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7">
         <f ca="1">SUM(INDIRECT("B7:B"&amp;ROW()-1))</f>
@@ -1371,7 +1360,7 @@
     </row>
     <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="23">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B6)</f>
@@ -3030,174 +3019,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="83"/>
-      <c r="AD1" s="83"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+      <c r="W1" s="86"/>
+      <c r="X1" s="86"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="86"/>
+      <c r="AD1" s="86"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="G2" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="70" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="M2" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="66"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="69"/>
       <c r="AB2" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AC2" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD2" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="71"/>
+      <c r="M3" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q3" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="68"/>
+      <c r="X3" s="71"/>
       <c r="Y3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="Z3" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD3" s="68"/>
+        <v>34</v>
+      </c>
+      <c r="AD3" s="71"/>
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
@@ -3215,7 +3204,7 @@
       <c r="E4" s="31">
         <v>5</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="64">
         <v>6</v>
       </c>
       <c r="G4" s="31">
@@ -3293,7 +3282,7 @@
     </row>
     <row r="5" spans="1:30" s="62" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -3359,7 +3348,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="58">
         <f ca="1">SUM(INDIRECT("B6:B"&amp;ROW()-1))</f>
@@ -3477,7 +3466,7 @@
     </row>
     <row r="8" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="56">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B5)</f>
@@ -6728,84 +6717,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
     </row>
     <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="D2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="E2" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="F2" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="89" t="s">
+      <c r="M2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="85" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="89" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="92"/>
+    <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="32" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="J3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">
@@ -6820,7 +6809,7 @@
       <c r="D4" s="34">
         <v>4</v>
       </c>
-      <c r="E4" s="96">
+      <c r="E4" s="66">
         <v>6</v>
       </c>
       <c r="F4" s="34">
@@ -6832,13 +6821,13 @@
       <c r="H4" s="34">
         <v>9</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="65">
         <v>10</v>
       </c>
-      <c r="J4" s="95">
+      <c r="J4" s="65">
         <v>11</v>
       </c>
-      <c r="K4" s="95">
+      <c r="K4" s="65">
         <v>12</v>
       </c>
       <c r="L4" s="34">
@@ -6853,7 +6842,7 @@
     </row>
     <row r="5" spans="1:14" s="40" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
@@ -6866,7 +6855,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
       <c r="L5" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M5" s="37"/>
       <c r="N5" s="39"/>
@@ -6889,7 +6878,7 @@
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="47"/>
@@ -6926,14 +6915,14 @@
         <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -6970,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M8" s="50"/>
       <c r="N8" s="53"/>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932441E8-0EF9-4022-8377-806B156E3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E27D24E-A97F-4EA0-B4DC-E10A08F79EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Прочие 30+</t>
+  </si>
+  <si>
+    <t>Электронные</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -742,6 +745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1061,13 +1067,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P203"/>
+  <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="16" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="18" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1075,18 +1081,18 @@
     <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
     <col min="3" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="8.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="1" customWidth="1"/>
-    <col min="17" max="25" width="9.140625" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="9" width="8.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="4" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
+    <col min="19" max="27" width="9.140625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -1098,41 +1104,45 @@
       <c r="I1" s="78"/>
       <c r="J1" s="78"/>
       <c r="K1" s="78"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="74"/>
       <c r="O1" s="75"/>
       <c r="P1" s="75"/>
-    </row>
-    <row r="2" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+    </row>
+    <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="67" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
       <c r="K2" s="68"/>
       <c r="L2" s="68"/>
       <c r="M2" s="68"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="76" t="s">
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="79" t="s">
+      <c r="R2" s="79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="73" t="s">
         <v>5</v>
@@ -1149,24 +1159,28 @@
         <v>7</v>
       </c>
       <c r="H3" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="87"/>
+      <c r="J3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
       <c r="K3" s="68"/>
-      <c r="L3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>9</v>
-      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-    </row>
-    <row r="4" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+    </row>
+    <row r="4" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71"/>
       <c r="B4" s="71"/>
       <c r="C4" s="21" t="s">
@@ -1184,31 +1198,37 @@
       <c r="G4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="K4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="L4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="M4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="N4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="O4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="P4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-    </row>
-    <row r="5" spans="1:16" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+    </row>
+    <row r="5" spans="1:18" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -1230,35 +1250,41 @@
       <c r="G5" s="28">
         <v>7</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="16">
         <v>8</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <v>9</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="19">
+        <v>9</v>
+      </c>
+      <c r="K5" s="18">
         <v>10</v>
       </c>
-      <c r="K5" s="18">
+      <c r="L5" s="18">
         <v>11</v>
       </c>
-      <c r="L5" s="28">
+      <c r="M5" s="18">
         <v>12</v>
       </c>
-      <c r="M5" s="28">
+      <c r="N5" s="28">
         <v>13</v>
       </c>
-      <c r="N5" s="28">
+      <c r="O5" s="28">
         <v>14</v>
       </c>
-      <c r="O5" s="17">
+      <c r="P5" s="28">
         <v>15</v>
       </c>
-      <c r="P5" s="16">
+      <c r="Q5" s="17">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
@@ -1277,8 +1303,10 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
@@ -1286,17 +1314,19 @@
       <c r="E7" s="9"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="29"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="9"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1325,40 +1355,45 @@
         <v>0</v>
       </c>
       <c r="H8" s="7">
+        <f ca="1">SUM(INDIRECT("G7:G"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
         <f ca="1">SUM(INDIRECT("H7:H"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="K8" s="7">
         <f ca="1">SUM(INDIRECT("I7:I"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="J8" s="7">
+      <c r="L8" s="7">
         <f ca="1">SUM(INDIRECT("J7:J"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="K8" s="7">
+      <c r="M8" s="7">
         <f ca="1">SUM(INDIRECT("K7:K"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="7">
+      <c r="N8" s="7">
         <f ca="1">SUM(INDIRECT("L7:L"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="M8" s="7">
+      <c r="O8" s="7">
         <f ca="1">SUM(INDIRECT("M7:M"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="7">
+      <c r="P8" s="7">
         <f ca="1">SUM(INDIRECT("N7:N"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="O8" s="7">
+      <c r="Q8" s="7">
         <f ca="1">SUM(INDIRECT("O7:O"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1387,1603 +1422,1997 @@
         <v>0</v>
       </c>
       <c r="H9" s="23">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="23">
-        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
-        <v>0</v>
-      </c>
+        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="23">
-        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J6)</f>
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+J6)</f>
         <v>0</v>
       </c>
       <c r="K9" s="23">
-        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K6)</f>
+        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+K6)</f>
         <v>0</v>
       </c>
       <c r="L9" s="23">
-        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L6)</f>
+        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+L6)</f>
         <v>0</v>
       </c>
       <c r="M9" s="23">
-        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M6)</f>
+        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+M6)</f>
         <v>0</v>
       </c>
       <c r="N9" s="23">
-        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N6)</f>
+        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+N6)</f>
         <v>0</v>
       </c>
       <c r="O9" s="23">
-        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O6)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="23"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+O6)</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+P6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+Q6)</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
       <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
       <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
       <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
       <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
       <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
       <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
       <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
       <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
       <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
       <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
       <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
       <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
       <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
       <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
       <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
       <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
       <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
       <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
       <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
       <c r="O66" s="1"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
       <c r="O67" s="1"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
       <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
       <c r="O69" s="1"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="O70" s="1"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
       <c r="O71" s="1"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
       <c r="O72" s="1"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
       <c r="O73" s="1"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
       <c r="O74" s="1"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
       <c r="O75" s="1"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
       <c r="O76" s="1"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
       <c r="O77" s="1"/>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
       <c r="O78" s="1"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
       <c r="O79" s="1"/>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
       <c r="O80" s="1"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
       <c r="O81" s="1"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
       <c r="O82" s="1"/>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
       <c r="O83" s="1"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="M84" s="1"/>
-      <c r="N84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
       <c r="O84" s="1"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
       <c r="O85" s="1"/>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
       <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
       <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
       <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
       <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
       <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
       <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
       <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
       <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
       <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
       <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
       <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
       <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
       <c r="O98" s="1"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="O99" s="1"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="O100" s="1"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
       <c r="O101" s="1"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
       <c r="O102" s="1"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
       <c r="O103" s="1"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
       <c r="O104" s="1"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
       <c r="O105" s="1"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
       <c r="O106" s="1"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
       <c r="O107" s="1"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
       <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
       <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
       <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
       <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
       <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
       <c r="O113" s="1"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
       <c r="O114" s="1"/>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="O115" s="1"/>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
       <c r="O116" s="1"/>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
       <c r="O117" s="1"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
       <c r="O118" s="1"/>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
       <c r="O119" s="1"/>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
       <c r="O120" s="1"/>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
       <c r="O121" s="1"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
       <c r="O122" s="1"/>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="O123" s="1"/>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="O124" s="1"/>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
       <c r="O125" s="1"/>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
       <c r="O126" s="1"/>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="M127" s="1"/>
-      <c r="N127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="O127" s="1"/>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="M128" s="1"/>
-      <c r="N128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="O128" s="1"/>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
       <c r="O129" s="1"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
       <c r="O130" s="1"/>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
       <c r="O131" s="1"/>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
       <c r="O132" s="1"/>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
       <c r="O133" s="1"/>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
       <c r="O134" s="1"/>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
       <c r="O135" s="1"/>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
       <c r="O136" s="1"/>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
       <c r="O137" s="1"/>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
       <c r="O138" s="1"/>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
       <c r="O139" s="1"/>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
       <c r="O140" s="1"/>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
       <c r="O141" s="1"/>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
       <c r="O142" s="1"/>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
       <c r="O143" s="1"/>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
       <c r="O144" s="1"/>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
       <c r="O145" s="1"/>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
       <c r="O146" s="1"/>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
       <c r="O147" s="1"/>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
       <c r="O148" s="1"/>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
       <c r="O149" s="1"/>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
       <c r="O150" s="1"/>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
       <c r="O151" s="1"/>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+    </row>
+    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
       <c r="O152" s="1"/>
-    </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+    </row>
+    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
       <c r="O153" s="1"/>
-    </row>
-    <row r="154" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
       <c r="O154" s="1"/>
-    </row>
-    <row r="155" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+    </row>
+    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
       <c r="O155" s="1"/>
-    </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+    </row>
+    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
       <c r="O156" s="1"/>
-    </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+    </row>
+    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
       <c r="O157" s="1"/>
-    </row>
-    <row r="158" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+    </row>
+    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="M158" s="1"/>
-      <c r="N158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
       <c r="O158" s="1"/>
-    </row>
-    <row r="159" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+    </row>
+    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
       <c r="O159" s="1"/>
-    </row>
-    <row r="160" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+    </row>
+    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="M160" s="1"/>
-      <c r="N160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
       <c r="O160" s="1"/>
-    </row>
-    <row r="161" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="M161" s="1"/>
-      <c r="N161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
       <c r="O161" s="1"/>
-    </row>
-    <row r="162" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
       <c r="O162" s="1"/>
-    </row>
-    <row r="163" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+    </row>
+    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
       <c r="O163" s="1"/>
-    </row>
-    <row r="164" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
       <c r="O164" s="1"/>
-    </row>
-    <row r="165" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+    </row>
+    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
       <c r="O165" s="1"/>
-    </row>
-    <row r="166" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+    </row>
+    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
       <c r="O166" s="1"/>
-    </row>
-    <row r="167" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+    </row>
+    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
       <c r="O167" s="1"/>
-    </row>
-    <row r="168" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
       <c r="O168" s="1"/>
-    </row>
-    <row r="169" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+    </row>
+    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
       <c r="O169" s="1"/>
-    </row>
-    <row r="170" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
       <c r="O170" s="1"/>
-    </row>
-    <row r="171" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+    </row>
+    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
       <c r="O171" s="1"/>
-    </row>
-    <row r="172" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+    </row>
+    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
       <c r="O172" s="1"/>
-    </row>
-    <row r="173" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+    </row>
+    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
       <c r="O173" s="1"/>
-    </row>
-    <row r="174" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
       <c r="O174" s="1"/>
-    </row>
-    <row r="175" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+    </row>
+    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
       <c r="O175" s="1"/>
-    </row>
-    <row r="176" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+    </row>
+    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
       <c r="O176" s="1"/>
-    </row>
-    <row r="177" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
       <c r="O177" s="1"/>
-    </row>
-    <row r="178" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+    </row>
+    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
       <c r="O178" s="1"/>
-    </row>
-    <row r="179" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+    </row>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
       <c r="O179" s="1"/>
-    </row>
-    <row r="180" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+    </row>
+    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
       <c r="O180" s="1"/>
-    </row>
-    <row r="181" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+    </row>
+    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
       <c r="O181" s="1"/>
-    </row>
-    <row r="182" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+    </row>
+    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
-      <c r="M182" s="1"/>
-      <c r="N182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
       <c r="O182" s="1"/>
-    </row>
-    <row r="183" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+    </row>
+    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
-      <c r="M183" s="1"/>
-      <c r="N183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
       <c r="O183" s="1"/>
-    </row>
-    <row r="184" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+    </row>
+    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
       <c r="O184" s="1"/>
-    </row>
-    <row r="185" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+    </row>
+    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
       <c r="O185" s="1"/>
-    </row>
-    <row r="186" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+    </row>
+    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
       <c r="O186" s="1"/>
-    </row>
-    <row r="187" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="N187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
       <c r="O187" s="1"/>
-    </row>
-    <row r="188" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+    </row>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="N188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
       <c r="O188" s="1"/>
-    </row>
-    <row r="189" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+    </row>
+    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
       <c r="O189" s="1"/>
-    </row>
-    <row r="190" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+    </row>
+    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="N190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
       <c r="O190" s="1"/>
-    </row>
-    <row r="191" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+    </row>
+    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="N191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
       <c r="O191" s="1"/>
-    </row>
-    <row r="192" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+    </row>
+    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
       <c r="O192" s="1"/>
-    </row>
-    <row r="193" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+    </row>
+    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
       <c r="O193" s="1"/>
-    </row>
-    <row r="194" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+    </row>
+    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
       <c r="O194" s="1"/>
-    </row>
-    <row r="195" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+    </row>
+    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="N195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
       <c r="O195" s="1"/>
-    </row>
-    <row r="196" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+    </row>
+    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="N196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
       <c r="O196" s="1"/>
-    </row>
-    <row r="197" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+    </row>
+    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="N197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
       <c r="O197" s="1"/>
-    </row>
-    <row r="198" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+    </row>
+    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="N198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
       <c r="O198" s="1"/>
-    </row>
-    <row r="199" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+    </row>
+    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
       <c r="O199" s="1"/>
-    </row>
-    <row r="200" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+    </row>
+    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
       <c r="O200" s="1"/>
-    </row>
-    <row r="201" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+    </row>
+    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="N201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
       <c r="O201" s="1"/>
-    </row>
-    <row r="202" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+    </row>
+    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
-      <c r="M202" s="1"/>
-      <c r="N202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
       <c r="O202" s="1"/>
-    </row>
-    <row r="203" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+    </row>
+    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
       <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="J3:M3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="J2:P2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait"/>
@@ -6696,7 +7125,7 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="14" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E27D24E-A97F-4EA0-B4DC-E10A08F79EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9BABF-6072-48A5-BC7A-18982FB5AD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -672,13 +672,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -688,6 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -698,6 +698,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -719,9 +725,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,9 +748,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,7 +1073,7 @@
       <pane xSplit="18" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1106,35 +1106,35 @@
       <c r="K1" s="78"/>
       <c r="L1" s="78"/>
       <c r="M1" s="78"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
     </row>
     <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="87"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="75"/>
       <c r="Q2" s="76" t="s">
         <v>3</v>
       </c>
@@ -1143,31 +1143,31 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="26" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="72" t="s">
+      <c r="I3" s="81"/>
+      <c r="J3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="26" t="s">
         <v>9</v>
       </c>
@@ -1177,12 +1177,12 @@
       <c r="P3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
     </row>
     <row r="4" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
@@ -1225,8 +1225,8 @@
       <c r="P4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
     </row>
     <row r="5" spans="1:18" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -1355,40 +1355,43 @@
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <f ca="1">SUM(INDIRECT("G7:G"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <f ca="1">SUM(INDIRECT("H7:H"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <f ca="1">SUM(INDIRECT("I7:I"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
       <c r="J8" s="7">
-        <f ca="1">SUM(INDIRECT("H7:H"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("J7:J"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <f ca="1">SUM(INDIRECT("I7:I"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("K7:K"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="L8" s="7">
-        <f ca="1">SUM(INDIRECT("J7:J"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("L7:L"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="M8" s="7">
-        <f ca="1">SUM(INDIRECT("K7:K"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("M7:M"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <f ca="1">SUM(INDIRECT("L7:L"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("N7:N"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="O8" s="7">
-        <f ca="1">SUM(INDIRECT("M7:M"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("O7:O"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="P8" s="7">
-        <f ca="1">SUM(INDIRECT("N7:N"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("P7:P"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="Q8" s="7">
-        <f ca="1">SUM(INDIRECT("O7:O"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("Q7:Q"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="R8" s="7"/>
@@ -1422,40 +1425,43 @@
         <v>0</v>
       </c>
       <c r="H9" s="23">
-        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+H6)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="23"/>
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="23">
+        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
+        <v>0</v>
+      </c>
       <c r="J9" s="23">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+J6)</f>
+        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J6)</f>
         <v>0</v>
       </c>
       <c r="K9" s="23">
-        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+K6)</f>
+        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+J6)</f>
         <v>0</v>
       </c>
       <c r="L9" s="23">
-        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+L6)</f>
+        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L6)</f>
         <v>0</v>
       </c>
       <c r="M9" s="23">
-        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+M6)</f>
+        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M6)</f>
         <v>0</v>
       </c>
       <c r="N9" s="23">
-        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+N6)</f>
+        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N6)</f>
         <v>0</v>
       </c>
       <c r="O9" s="23">
-        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+O6)</f>
+        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O6)</f>
         <v>0</v>
       </c>
       <c r="P9" s="23">
-        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+P6)</f>
+        <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+P6)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="23">
-        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+Q6)</f>
+        <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q6)</f>
         <v>0</v>
       </c>
       <c r="R9" s="23"/>
@@ -3448,83 +3454,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="G2" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="83" t="s">
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="73" t="s">
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="72" t="s">
         <v>58</v>
       </c>
       <c r="Y2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="69"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="75"/>
       <c r="AB2" s="30" t="s">
         <v>56</v>
       </c>
@@ -3536,8 +3542,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
@@ -3565,7 +3571,7 @@
       <c r="K3" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="71"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="63" t="s">
         <v>48</v>
       </c>
@@ -3599,7 +3605,7 @@
       <c r="W3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="71"/>
+      <c r="X3" s="69"/>
       <c r="Y3" s="21" t="s">
         <v>10</v>
       </c>
@@ -3615,7 +3621,7 @@
       <c r="AC3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="71"/>
+      <c r="AD3" s="69"/>
     </row>
     <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
@@ -7147,62 +7153,62 @@
   <sheetData>
     <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
       <c r="G1" s="77"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="92" t="s">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="88" t="s">
+      <c r="J2" s="71"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="90" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="32" t="s">
         <v>10</v>
       </c>
@@ -7221,9 +7227,9 @@
       <c r="K3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34">

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C9BABF-6072-48A5-BC7A-18982FB5AD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69388882-C3C6-45E4-9C55-9FD9B67AF090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -1067,13 +1067,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R203"/>
+  <dimension ref="A1:T203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="20" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1086,13 +1086,14 @@
     <col min="11" max="13" width="8.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.5703125" style="1" customWidth="1"/>
     <col min="15" max="16" width="9.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="18.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
-    <col min="19" max="27" width="9.140625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="18" width="8.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" style="1" customWidth="1"/>
+    <col min="21" max="29" width="9.140625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="77"/>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -1111,8 +1112,10 @@
       <c r="P1" s="74"/>
       <c r="Q1" s="74"/>
       <c r="R1" s="74"/>
-    </row>
-    <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+    </row>
+    <row r="2" spans="1:20" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
         <v>0</v>
       </c>
@@ -1126,23 +1129,25 @@
       <c r="G2" s="80"/>
       <c r="H2" s="80"/>
       <c r="I2" s="81"/>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76" t="s">
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="T2" s="79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68"/>
       <c r="B3" s="72" t="s">
         <v>5</v>
@@ -1177,10 +1182,14 @@
       <c r="P3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-    </row>
-    <row r="4" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="81"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="69"/>
       <c r="B4" s="69"/>
       <c r="C4" s="21" t="s">
@@ -1225,10 +1234,16 @@
       <c r="P4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-    </row>
-    <row r="5" spans="1:18" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+    </row>
+    <row r="5" spans="1:20" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -1277,14 +1292,20 @@
       <c r="P5" s="28">
         <v>15</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="16">
         <v>16</v>
       </c>
       <c r="R5" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="17">
+        <v>18</v>
+      </c>
+      <c r="T5" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1326,10 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:20" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
@@ -1323,10 +1346,12 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="10"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1394,9 +1419,17 @@
         <f ca="1">SUM(INDIRECT("Q7:Q"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="R8" s="7">
+        <f ca="1">SUM(INDIRECT("R7:R"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <f ca="1">SUM(INDIRECT("S7:S"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
@@ -1464,9 +1497,17 @@
         <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q6)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="23"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R9" s="23">
+        <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+R6)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
+        <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+S6)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1475,8 +1516,10 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1485,8 +1528,10 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -1495,8 +1540,10 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -1505,8 +1552,10 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -1515,8 +1564,10 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1525,8 +1576,10 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1535,8 +1588,10 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1545,8 +1600,10 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1555,8 +1612,10 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1565,8 +1624,10 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1575,8 +1636,10 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1585,8 +1648,10 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1595,8 +1660,10 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1605,8 +1672,10 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1615,8 +1684,10 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1625,8 +1696,10 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1635,8 +1708,10 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1645,8 +1720,10 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1655,8 +1732,10 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1665,8 +1744,10 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1675,8 +1756,10 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1685,8 +1768,10 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1695,8 +1780,10 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1705,8 +1792,10 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1715,8 +1804,10 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1725,8 +1816,10 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -1735,8 +1828,10 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1745,8 +1840,10 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1755,8 +1852,10 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1765,8 +1864,10 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1775,8 +1876,10 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1785,8 +1888,10 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1795,8 +1900,10 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1805,8 +1912,10 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1815,8 +1924,10 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1825,8 +1936,10 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1835,8 +1948,10 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1845,8 +1960,10 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1855,8 +1972,10 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1865,8 +1984,10 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1875,8 +1996,10 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -1885,8 +2008,10 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1895,8 +2020,10 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -1905,8 +2032,10 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -1915,8 +2044,10 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -1925,8 +2056,10 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1935,8 +2068,10 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -1945,8 +2080,10 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -1955,8 +2092,10 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -1965,8 +2104,10 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -1975,8 +2116,10 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -1985,8 +2128,10 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -1995,8 +2140,10 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -2005,8 +2152,10 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -2015,8 +2164,10 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2025,8 +2176,10 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2035,8 +2188,10 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -2045,8 +2200,10 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -2055,8 +2212,10 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -2065,8 +2224,10 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -2075,8 +2236,10 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2085,8 +2248,10 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2095,8 +2260,10 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2105,8 +2272,10 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -2115,8 +2284,10 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -2125,8 +2296,10 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -2135,8 +2308,10 @@
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -2145,8 +2320,10 @@
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -2155,8 +2332,10 @@
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -2165,8 +2344,10 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -2175,8 +2356,10 @@
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -2185,8 +2368,10 @@
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -2195,8 +2380,10 @@
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -2205,8 +2392,10 @@
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -2215,8 +2404,10 @@
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -2225,8 +2416,10 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -2235,8 +2428,10 @@
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -2245,8 +2440,10 @@
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -2255,8 +2452,10 @@
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -2265,8 +2464,10 @@
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -2275,8 +2476,10 @@
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -2285,8 +2488,10 @@
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -2295,8 +2500,10 @@
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -2305,8 +2512,10 @@
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -2315,8 +2524,10 @@
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -2325,8 +2536,10 @@
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -2335,8 +2548,10 @@
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -2345,8 +2560,10 @@
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -2355,8 +2572,10 @@
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -2365,8 +2584,10 @@
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -2375,8 +2596,10 @@
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -2385,8 +2608,10 @@
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -2395,8 +2620,10 @@
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -2405,8 +2632,10 @@
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -2415,8 +2644,10 @@
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-    </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -2425,8 +2656,10 @@
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -2435,8 +2668,10 @@
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-    </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -2445,8 +2680,10 @@
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -2455,8 +2692,10 @@
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-    </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -2465,8 +2704,10 @@
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -2475,8 +2716,10 @@
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-    </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -2485,8 +2728,10 @@
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -2495,8 +2740,10 @@
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -2505,8 +2752,10 @@
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -2515,8 +2764,10 @@
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -2525,8 +2776,10 @@
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-    </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -2535,8 +2788,10 @@
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -2545,8 +2800,10 @@
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -2555,8 +2812,10 @@
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
-    </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -2565,8 +2824,10 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -2575,8 +2836,10 @@
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -2585,8 +2848,10 @@
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-    </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -2595,8 +2860,10 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-    </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -2605,8 +2872,10 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-    </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -2615,8 +2884,10 @@
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-    </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -2625,8 +2896,10 @@
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-    </row>
-    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -2635,8 +2908,10 @@
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-    </row>
-    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -2645,8 +2920,10 @@
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-    </row>
-    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -2655,8 +2932,10 @@
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -2665,8 +2944,10 @@
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -2675,8 +2956,10 @@
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-    </row>
-    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -2685,8 +2968,10 @@
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -2695,8 +2980,10 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-    </row>
-    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -2705,8 +2992,10 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-    </row>
-    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -2715,8 +3004,10 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -2725,8 +3016,10 @@
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-    </row>
-    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -2735,8 +3028,10 @@
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
       <c r="Q136" s="1"/>
-    </row>
-    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -2745,8 +3040,10 @@
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-    </row>
-    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -2755,8 +3052,10 @@
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-    </row>
-    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -2765,8 +3064,10 @@
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-    </row>
-    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -2775,8 +3076,10 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-    </row>
-    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -2785,8 +3088,10 @@
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-    </row>
-    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -2795,8 +3100,10 @@
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-    </row>
-    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -2805,8 +3112,10 @@
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -2815,8 +3124,10 @@
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
@@ -2825,8 +3136,10 @@
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
       <c r="Q145" s="1"/>
-    </row>
-    <row r="146" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -2835,8 +3148,10 @@
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
@@ -2845,8 +3160,10 @@
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-    </row>
-    <row r="148" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -2855,8 +3172,10 @@
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-    </row>
-    <row r="149" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -2865,8 +3184,10 @@
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-    </row>
-    <row r="150" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -2875,8 +3196,10 @@
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
@@ -2885,8 +3208,10 @@
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-    </row>
-    <row r="152" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -2895,8 +3220,10 @@
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
       <c r="Q152" s="1"/>
-    </row>
-    <row r="153" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
@@ -2905,8 +3232,10 @@
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
@@ -2915,8 +3244,10 @@
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-    </row>
-    <row r="155" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -2925,8 +3256,10 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
@@ -2935,8 +3268,10 @@
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -2945,8 +3280,10 @@
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
@@ -2955,8 +3292,10 @@
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
       <c r="Q158" s="1"/>
-    </row>
-    <row r="159" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -2965,8 +3304,10 @@
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
       <c r="Q159" s="1"/>
-    </row>
-    <row r="160" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
@@ -2975,8 +3316,10 @@
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
@@ -2985,8 +3328,10 @@
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -2995,8 +3340,10 @@
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -3005,8 +3352,10 @@
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -3015,8 +3364,10 @@
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -3025,8 +3376,10 @@
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
@@ -3035,8 +3388,10 @@
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -3045,8 +3400,10 @@
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
       <c r="Q167" s="1"/>
-    </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -3055,8 +3412,10 @@
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
@@ -3065,8 +3424,10 @@
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -3075,8 +3436,10 @@
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
       <c r="Q170" s="1"/>
-    </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -3085,8 +3448,10 @@
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
@@ -3095,8 +3460,10 @@
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
@@ -3105,8 +3472,10 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
@@ -3115,8 +3484,10 @@
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
@@ -3125,8 +3496,10 @@
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -3135,8 +3508,10 @@
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -3145,8 +3520,10 @@
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
@@ -3155,8 +3532,10 @@
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+    </row>
+    <row r="179" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
@@ -3165,8 +3544,10 @@
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
@@ -3175,8 +3556,10 @@
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
       <c r="Q180" s="1"/>
-    </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -3185,8 +3568,10 @@
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
@@ -3195,8 +3580,10 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+    </row>
+    <row r="183" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -3205,8 +3592,10 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+    </row>
+    <row r="184" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -3215,8 +3604,10 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+    </row>
+    <row r="185" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
@@ -3225,8 +3616,10 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+    </row>
+    <row r="186" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
@@ -3235,8 +3628,10 @@
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
@@ -3245,8 +3640,10 @@
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -3255,8 +3652,10 @@
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
@@ -3265,8 +3664,10 @@
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -3275,8 +3676,10 @@
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
@@ -3285,8 +3688,10 @@
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
@@ -3295,8 +3700,10 @@
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -3305,8 +3712,10 @@
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -3315,8 +3724,10 @@
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-    </row>
-    <row r="195" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+    </row>
+    <row r="195" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
@@ -3325,8 +3736,10 @@
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-    </row>
-    <row r="196" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+    </row>
+    <row r="196" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -3335,8 +3748,10 @@
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-    </row>
-    <row r="197" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+    </row>
+    <row r="197" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -3345,8 +3760,10 @@
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-    </row>
-    <row r="198" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+    </row>
+    <row r="198" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -3355,8 +3772,10 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-    </row>
-    <row r="199" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+    </row>
+    <row r="199" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
@@ -3365,8 +3784,10 @@
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-    </row>
-    <row r="200" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+    </row>
+    <row r="200" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -3375,8 +3796,10 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-    </row>
-    <row r="201" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+    </row>
+    <row r="201" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
@@ -3385,8 +3808,10 @@
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-    </row>
-    <row r="202" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+    </row>
+    <row r="202" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -3395,8 +3820,10 @@
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-    </row>
-    <row r="203" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+    </row>
+    <row r="203" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
@@ -3405,20 +3832,23 @@
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="N1:T1"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="S2:S4"/>
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="J2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait"/>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69388882-C3C6-45E4-9C55-9FD9B67AF090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ADE6B5-06B2-4A5F-B4EB-938A5FDDC191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="23310" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -725,6 +724,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1073,7 +1073,7 @@
       <pane xSplit="20" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,19 +1094,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
       <c r="N1" s="73"/>
       <c r="O1" s="74"/>
       <c r="P1" s="74"/>
@@ -1122,28 +1122,28 @@
       <c r="B2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="76" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="79" t="s">
+      <c r="T2" s="78" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       <c r="H3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="81"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="70" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="Q3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="R3" s="81"/>
+      <c r="R3" s="80"/>
       <c r="S3" s="68"/>
       <c r="T3" s="68"/>
     </row>
@@ -3836,7 +3836,7 @@
       <c r="S203" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="B3:B4"/>
@@ -3848,7 +3848,8 @@
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait"/>
@@ -3884,42 +3885,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
     </row>
     <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="84" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="70" t="s">
@@ -3930,29 +3931,29 @@
       <c r="F2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>61</v>
       </c>
       <c r="H2" s="71"/>
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="85" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
       <c r="X2" s="72" t="s">
         <v>58</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>57</v>
       </c>
       <c r="Z2" s="71"/>
-      <c r="AA2" s="75"/>
+      <c r="AA2" s="88"/>
       <c r="AB2" s="30" t="s">
         <v>56</v>
       </c>
@@ -7582,13 +7583,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
+      <c r="A1" s="76"/>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
       <c r="D1" s="91"/>
       <c r="E1" s="91"/>
       <c r="F1" s="91"/>
-      <c r="G1" s="77"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
       <c r="J1" s="91"/>
@@ -7622,7 +7623,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="71"/>
-      <c r="K2" s="75"/>
+      <c r="K2" s="88"/>
       <c r="L2" s="89" t="s">
         <v>26</v>
       </c>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ADE6B5-06B2-4A5F-B4EB-938A5FDDC191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00199D9-A231-453E-A902-5C2AEA4AEB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="23310" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -1069,7 +1069,7 @@
   </sheetPr>
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="20" ySplit="6" topLeftCell="U7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -3863,11 +3863,11 @@
   </sheetPr>
   <dimension ref="A1:AD3064"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="12" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,9 +3965,7 @@
       <c r="AB2" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="30" t="s">
-        <v>56</v>
-      </c>
+      <c r="AC2" s="26"/>
       <c r="AD2" s="67" t="s">
         <v>4</v>
       </c>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A21D905-1F3E-477A-9E63-F2447E878D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A2826-940C-4351-AB86-2ECEA910A175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -676,9 +676,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -774,6 +771,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1106,11 +1109,11 @@
   </sheetPr>
   <dimension ref="A1:U203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="21" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1131,111 +1134,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
     </row>
     <row r="2" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="69" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="74" t="s">
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="77" t="s">
+      <c r="U2" s="76" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="100" t="s">
+      <c r="H3" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="79"/>
-      <c r="K3" s="71" t="s">
+      <c r="J3" s="78"/>
+      <c r="K3" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="99"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="98"/>
       <c r="O3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="100" t="s">
+      <c r="Q3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
     </row>
     <row r="4" spans="1:21" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
@@ -1251,15 +1254,15 @@
       <c r="G4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="101"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="97" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="21" t="s">
@@ -1274,15 +1277,15 @@
       <c r="P4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="101"/>
+      <c r="Q4" s="102"/>
       <c r="R4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="S4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -1306,7 +1309,7 @@
       <c r="G5" s="27">
         <v>7</v>
       </c>
-      <c r="H5" s="102">
+      <c r="H5" s="103">
         <v>9</v>
       </c>
       <c r="I5" s="16">
@@ -1333,7 +1336,7 @@
       <c r="P5" s="27">
         <v>15</v>
       </c>
-      <c r="Q5" s="102">
+      <c r="Q5" s="103">
         <v>16</v>
       </c>
       <c r="R5" s="18">
@@ -1382,7 +1385,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="103"/>
+      <c r="H7" s="104"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="11"/>
@@ -1391,7 +1394,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="103"/>
+      <c r="Q7" s="104"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
@@ -4112,118 +4115,124 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD3064"/>
+  <dimension ref="A1:AE3064"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC2" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="53" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="54" customWidth="1"/>
-    <col min="3" max="11" width="8.7109375" style="53" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="54" customWidth="1"/>
-    <col min="13" max="23" width="8.7109375" style="53" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" style="54" customWidth="1"/>
-    <col min="25" max="29" width="8.7109375" style="53" customWidth="1"/>
-    <col min="30" max="30" width="11.42578125" style="53" customWidth="1"/>
-    <col min="31" max="33" width="9.140625" style="53" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="53"/>
+    <col min="3" max="12" width="8.7109375" style="53" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="54" customWidth="1"/>
+    <col min="14" max="24" width="8.7109375" style="53" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="54" customWidth="1"/>
+    <col min="26" max="30" width="8.7109375" style="53" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" style="53" customWidth="1"/>
+    <col min="32" max="34" width="9.140625" style="53" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-    </row>
-    <row r="2" spans="1:30" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="83" t="s">
+    <row r="1" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+    </row>
+    <row r="2" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="83" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="N2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="71" t="s">
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="66" t="s">
+      <c r="Z2" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="29" t="s">
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="65" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
+    <row r="3" spans="1:31" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
       <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
@@ -4236,74 +4245,73 @@
       <c r="F3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="100"/>
+      <c r="H3" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="I3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="62" t="s">
+      <c r="J3" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="K3" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="67"/>
+      <c r="N3" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="O3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="P3" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="Q3" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="62" t="s">
+      <c r="R3" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="R3" s="62" t="s">
+      <c r="S3" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="62" t="s">
+      <c r="T3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="U3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="U3" s="62" t="s">
+      <c r="V3" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="W3" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="62" t="s">
+      <c r="X3" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="21" t="s">
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="AA3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AB3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AC3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="68"/>
-    </row>
-    <row r="4" spans="1:30" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="67"/>
+    </row>
+    <row r="4" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>1</v>
       </c>
@@ -4319,83 +4327,86 @@
       <c r="E4" s="30">
         <v>5</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="59">
         <v>6</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="59">
+        <v>29</v>
+      </c>
+      <c r="H4" s="30">
         <v>7</v>
       </c>
-      <c r="H4" s="30">
+      <c r="I4" s="30">
         <v>8</v>
       </c>
-      <c r="I4" s="30">
+      <c r="J4" s="30">
         <v>9</v>
       </c>
-      <c r="J4" s="30">
+      <c r="K4" s="30">
         <v>10</v>
       </c>
-      <c r="K4" s="30">
+      <c r="L4" s="30">
         <v>11</v>
       </c>
-      <c r="L4" s="60">
+      <c r="M4" s="60">
         <v>12</v>
       </c>
-      <c r="M4" s="30">
+      <c r="N4" s="30">
         <v>13</v>
       </c>
-      <c r="N4" s="30">
+      <c r="O4" s="30">
         <v>14</v>
       </c>
-      <c r="O4" s="30">
+      <c r="P4" s="30">
         <v>15</v>
       </c>
-      <c r="P4" s="30">
+      <c r="Q4" s="30">
         <v>16</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="R4" s="30">
         <v>17</v>
       </c>
-      <c r="R4" s="30">
+      <c r="S4" s="30">
         <v>18</v>
       </c>
-      <c r="S4" s="30">
+      <c r="T4" s="30">
         <v>19</v>
       </c>
-      <c r="T4" s="30">
+      <c r="U4" s="30">
         <v>20</v>
       </c>
-      <c r="U4" s="30">
+      <c r="V4" s="30">
         <v>21</v>
       </c>
-      <c r="V4" s="30">
+      <c r="W4" s="30">
         <v>22</v>
       </c>
-      <c r="W4" s="30">
+      <c r="X4" s="30">
         <v>23</v>
       </c>
-      <c r="X4" s="60">
+      <c r="Y4" s="60">
         <v>24</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Z4" s="30">
         <v>25</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="AA4" s="30">
         <v>26</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AB4" s="30">
         <v>27</v>
       </c>
-      <c r="AB4" s="30">
+      <c r="AC4" s="30">
         <v>28</v>
       </c>
-      <c r="AC4" s="30">
+      <c r="AD4" s="30">
         <v>29</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AE4" s="30">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="61" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="61" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
@@ -4428,21 +4439,22 @@
       <c r="AB5" s="57"/>
       <c r="AC5" s="57"/>
       <c r="AD5" s="57"/>
-    </row>
-    <row r="6" spans="1:30" s="58" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="57"/>
+    </row>
+    <row r="6" spans="1:31" s="58" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="60"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="59"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="60"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -4453,15 +4465,16 @@
       <c r="U6" s="30"/>
       <c r="V6" s="30"/>
       <c r="W6" s="30"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="60"/>
       <c r="Z6" s="30"/>
       <c r="AA6" s="30"/>
-      <c r="AB6" s="59"/>
+      <c r="AB6" s="30"/>
       <c r="AC6" s="59"/>
-      <c r="AD6" s="30"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD6" s="59"/>
+      <c r="AE6" s="30"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
@@ -4486,100 +4499,104 @@
         <v>0</v>
       </c>
       <c r="G7" s="57">
+        <f ca="1">SUM(INDIRECT("AC6:AC"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="57">
         <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="57">
+      <c r="I7" s="57">
         <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="57">
+      <c r="J7" s="57">
         <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="J7" s="57">
+      <c r="K7" s="57">
         <f ca="1">SUM(INDIRECT("J6:J"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="57">
+      <c r="L7" s="57">
         <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="57">
+      <c r="M7" s="57">
         <f ca="1">SUM(INDIRECT("L6:L"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="57">
+      <c r="N7" s="57">
         <f ca="1">SUM(INDIRECT("M6:M"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="57">
+      <c r="O7" s="57">
         <f ca="1">SUM(INDIRECT("N6:N"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="57">
+      <c r="P7" s="57">
         <f ca="1">SUM(INDIRECT("O6:O"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="P7" s="57">
+      <c r="Q7" s="57">
         <f ca="1">SUM(INDIRECT("P6:P"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="R7" s="57">
         <f ca="1">SUM(INDIRECT("Q6:Q"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="R7" s="57">
+      <c r="S7" s="57">
         <f ca="1">SUM(INDIRECT("R6:R"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="S7" s="57">
+      <c r="T7" s="57">
         <f ca="1">SUM(INDIRECT("S6:S"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="T7" s="57">
+      <c r="U7" s="57">
         <f ca="1">SUM(INDIRECT("T6:T"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="57">
+      <c r="V7" s="57">
         <f ca="1">SUM(INDIRECT("U6:U"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="V7" s="57">
+      <c r="W7" s="57">
         <f ca="1">SUM(INDIRECT("V6:V"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="W7" s="57">
+      <c r="X7" s="57">
         <f ca="1">SUM(INDIRECT("W6:W"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="X7" s="57">
+      <c r="Y7" s="57">
         <f ca="1">SUM(INDIRECT("X6:X"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="57">
+      <c r="Z7" s="57">
         <f ca="1">SUM(INDIRECT("Y6:Y"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="57">
+      <c r="AA7" s="57">
         <f ca="1">SUM(INDIRECT("Z6:Z"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="AA7" s="57">
+      <c r="AB7" s="57">
         <f ca="1">SUM(INDIRECT("AA6:AA"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="57">
+      <c r="AC7" s="57">
         <f ca="1">SUM(INDIRECT("AB6:AB"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="AC7" s="57">
+      <c r="AD7" s="57">
         <f ca="1">SUM(INDIRECT("AC6:AC"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="AD7" s="57"/>
-    </row>
-    <row r="8" spans="1:30" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="AE7" s="57"/>
+    </row>
+    <row r="8" spans="1:31" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>17</v>
       </c>
@@ -4604,138 +4621,142 @@
         <v>0</v>
       </c>
       <c r="G8" s="55">
-        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+G5)</f>
+        <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+G5)</f>
         <v>0</v>
       </c>
       <c r="H8" s="55">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H5)</f>
+        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+H5)</f>
         <v>0</v>
       </c>
       <c r="I8" s="55">
-        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I5)</f>
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+I5)</f>
         <v>0</v>
       </c>
       <c r="J8" s="55">
-        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J5)</f>
+        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+J5)</f>
         <v>0</v>
       </c>
       <c r="K8" s="55">
-        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K5)</f>
+        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+K5)</f>
         <v>0</v>
       </c>
       <c r="L8" s="55">
-        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L5)</f>
+        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+L5)</f>
         <v>0</v>
       </c>
       <c r="M8" s="55">
-        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M5)</f>
+        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+M5)</f>
         <v>0</v>
       </c>
       <c r="N8" s="55">
-        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N5)</f>
+        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+N5)</f>
         <v>0</v>
       </c>
       <c r="O8" s="55">
-        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O5)</f>
+        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+O5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="55">
-        <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+P5)</f>
+        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+P5)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="55">
-        <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q5)</f>
+        <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+Q5)</f>
         <v>0</v>
       </c>
       <c r="R8" s="55">
-        <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+R5)</f>
+        <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+R5)</f>
         <v>0</v>
       </c>
       <c r="S8" s="55">
-        <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+S5)</f>
+        <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+S5)</f>
         <v>0</v>
       </c>
       <c r="T8" s="55">
-        <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+T5)</f>
+        <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+T5)</f>
         <v>0</v>
       </c>
       <c r="U8" s="55">
-        <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+U5)</f>
+        <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+U5)</f>
         <v>0</v>
       </c>
       <c r="V8" s="55">
-        <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+V5)</f>
+        <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+V5)</f>
         <v>0</v>
       </c>
       <c r="W8" s="55">
-        <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+W5)</f>
+        <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+W5)</f>
         <v>0</v>
       </c>
       <c r="X8" s="55">
-        <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+X5)</f>
+        <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+X5)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="55">
-        <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Y5)</f>
+        <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+Y5)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="55">
-        <f ca="1">SUM(INDIRECT("Z"&amp;ROW()-1)+Z5)</f>
+        <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Z5)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="55">
-        <f ca="1">SUM(INDIRECT("AA"&amp;ROW()-1)+AA5)</f>
+        <f ca="1">SUM(INDIRECT("Z"&amp;ROW()-1)+AA5)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="55">
-        <f ca="1">SUM(INDIRECT("AB"&amp;ROW()-1)+AB5)</f>
+        <f ca="1">SUM(INDIRECT("AA"&amp;ROW()-1)+AB5)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="55">
-        <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+AC5)</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="55"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <f ca="1">SUM(INDIRECT("AB"&amp;ROW()-1)+AC5)</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="55">
+        <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="55"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="X9" s="53"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M9" s="53"/>
+      <c r="Y9" s="53"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="X10" s="53"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M10" s="53"/>
+      <c r="Y10" s="53"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="X11" s="53"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M11" s="53"/>
+      <c r="Y11" s="53"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="X12" s="53"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M12" s="53"/>
+      <c r="Y12" s="53"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="X13" s="53"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M13" s="53"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="X14" s="53"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M14" s="53"/>
+      <c r="Y14" s="53"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="X15" s="53"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="M15" s="53"/>
+      <c r="Y15" s="53"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="X16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="Y16" s="53"/>
     </row>
     <row r="17" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7786,18 +7807,20 @@
     <row r="3063" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3064" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M2:W2"/>
+  <mergeCells count="13">
+    <mergeCell ref="N2:X2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="V1:AE1"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -7832,63 +7855,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="94" t="s">
+      <c r="E2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="92" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="88" t="s">
+      <c r="J2" s="69"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="88" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="95"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="31" t="s">
         <v>10</v>
       </c>
@@ -7907,9 +7930,9 @@
       <c r="K3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -7924,7 +7947,7 @@
       <c r="D4" s="33">
         <v>4</v>
       </c>
-      <c r="E4" s="65">
+      <c r="E4" s="64">
         <v>6</v>
       </c>
       <c r="F4" s="33">
@@ -7936,13 +7959,13 @@
       <c r="H4" s="33">
         <v>9</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="63">
         <v>10</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="63">
         <v>11</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="63">
         <v>12</v>
       </c>
       <c r="L4" s="33">

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0A2826-940C-4351-AB86-2ECEA910A175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDCFFD2-CA38-42F8-8E9A-DA5ED01F8176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4118,10 +4118,10 @@
   <dimension ref="A1:AE3064"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:AE1"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4474,7 +4474,7 @@
       <c r="AD6" s="59"/>
       <c r="AE6" s="30"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
@@ -4499,99 +4499,99 @@
         <v>0</v>
       </c>
       <c r="G7" s="57">
+        <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="57">
+        <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="57">
+        <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="57">
+        <f ca="1">SUM(INDIRECT("J6:J"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="57">
+        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="57">
+        <f ca="1">SUM(INDIRECT("L6:L"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="57">
+        <f ca="1">SUM(INDIRECT("M6:M"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="57">
+        <f ca="1">SUM(INDIRECT("N6:N"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="57">
+        <f ca="1">SUM(INDIRECT("O6:O"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="57">
+        <f ca="1">SUM(INDIRECT("P6:P"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="57">
+        <f ca="1">SUM(INDIRECT("Q6:Q"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="57">
+        <f ca="1">SUM(INDIRECT("R6:R"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="57">
+        <f ca="1">SUM(INDIRECT("S6:S"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="57">
+        <f ca="1">SUM(INDIRECT("T6:T"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="57">
+        <f ca="1">SUM(INDIRECT("U6:U"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="57">
+        <f ca="1">SUM(INDIRECT("V6:V"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="57">
+        <f ca="1">SUM(INDIRECT("W6:W"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="57">
+        <f ca="1">SUM(INDIRECT("X6:X"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="57">
+        <f ca="1">SUM(INDIRECT("Y6:Y"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="57">
+        <f ca="1">SUM(INDIRECT("Z6:Z"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="57">
+        <f ca="1">SUM(INDIRECT("AA6:AA"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="57">
+        <f ca="1">SUM(INDIRECT("AB6:AB"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="57">
         <f ca="1">SUM(INDIRECT("AC6:AC"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="57">
-        <f ca="1">SUM(INDIRECT("G6:G"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="57">
-        <f ca="1">SUM(INDIRECT("H6:H"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="57">
-        <f ca="1">SUM(INDIRECT("I6:I"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="57">
-        <f ca="1">SUM(INDIRECT("J6:J"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="57">
-        <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="57">
-        <f ca="1">SUM(INDIRECT("L6:L"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="57">
-        <f ca="1">SUM(INDIRECT("M6:M"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="57">
-        <f ca="1">SUM(INDIRECT("N6:N"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="57">
-        <f ca="1">SUM(INDIRECT("O6:O"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="57">
-        <f ca="1">SUM(INDIRECT("P6:P"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="57">
-        <f ca="1">SUM(INDIRECT("Q6:Q"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="57">
-        <f ca="1">SUM(INDIRECT("R6:R"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="57">
-        <f ca="1">SUM(INDIRECT("S6:S"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="57">
-        <f ca="1">SUM(INDIRECT("T6:T"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="57">
-        <f ca="1">SUM(INDIRECT("U6:U"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="57">
-        <f ca="1">SUM(INDIRECT("V6:V"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="57">
-        <f ca="1">SUM(INDIRECT("W6:W"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="57">
-        <f ca="1">SUM(INDIRECT("X6:X"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="57">
-        <f ca="1">SUM(INDIRECT("Y6:Y"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="57">
-        <f ca="1">SUM(INDIRECT("Z6:Z"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="57">
-        <f ca="1">SUM(INDIRECT("AA6:AA"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="57">
-        <f ca="1">SUM(INDIRECT("AB6:AB"&amp;ROW()-1))</f>
-        <v>0</v>
-      </c>
       <c r="AD7" s="57">
-        <f ca="1">SUM(INDIRECT("AC6:AC"&amp;ROW()-1))</f>
+        <f ca="1">SUM(INDIRECT("AD6:AD"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
       <c r="AE7" s="57"/>
@@ -4621,99 +4621,99 @@
         <v>0</v>
       </c>
       <c r="G8" s="55">
-        <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+G5)</f>
+        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+G5)</f>
         <v>0</v>
       </c>
       <c r="H8" s="55">
-        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+H5)</f>
+        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H5)</f>
         <v>0</v>
       </c>
       <c r="I8" s="55">
-        <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+I5)</f>
+        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I5)</f>
         <v>0</v>
       </c>
       <c r="J8" s="55">
-        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+J5)</f>
+        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J5)</f>
         <v>0</v>
       </c>
       <c r="K8" s="55">
-        <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+K5)</f>
+        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K5)</f>
         <v>0</v>
       </c>
       <c r="L8" s="55">
-        <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+L5)</f>
+        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L5)</f>
         <v>0</v>
       </c>
       <c r="M8" s="55">
-        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+M5)</f>
+        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M5)</f>
         <v>0</v>
       </c>
       <c r="N8" s="55">
-        <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+N5)</f>
+        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N5)</f>
         <v>0</v>
       </c>
       <c r="O8" s="55">
-        <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+O5)</f>
+        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="55">
-        <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+P5)</f>
+        <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+P5)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="55">
-        <f ca="1">SUM(INDIRECT("P"&amp;ROW()-1)+Q5)</f>
+        <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+Q5)</f>
         <v>0</v>
       </c>
       <c r="R8" s="55">
-        <f ca="1">SUM(INDIRECT("Q"&amp;ROW()-1)+R5)</f>
+        <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+R5)</f>
         <v>0</v>
       </c>
       <c r="S8" s="55">
-        <f ca="1">SUM(INDIRECT("R"&amp;ROW()-1)+S5)</f>
+        <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+S5)</f>
         <v>0</v>
       </c>
       <c r="T8" s="55">
-        <f ca="1">SUM(INDIRECT("S"&amp;ROW()-1)+T5)</f>
+        <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+T5)</f>
         <v>0</v>
       </c>
       <c r="U8" s="55">
-        <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+U5)</f>
+        <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+U5)</f>
         <v>0</v>
       </c>
       <c r="V8" s="55">
-        <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+V5)</f>
+        <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+V5)</f>
         <v>0</v>
       </c>
       <c r="W8" s="55">
-        <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+W5)</f>
+        <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+W5)</f>
         <v>0</v>
       </c>
       <c r="X8" s="55">
-        <f ca="1">SUM(INDIRECT("W"&amp;ROW()-1)+X5)</f>
+        <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+X5)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="55">
-        <f ca="1">SUM(INDIRECT("X"&amp;ROW()-1)+Y5)</f>
+        <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Y5)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="55">
-        <f ca="1">SUM(INDIRECT("Y"&amp;ROW()-1)+Z5)</f>
+        <f ca="1">SUM(INDIRECT("Z"&amp;ROW()-1)+Z5)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="55">
-        <f ca="1">SUM(INDIRECT("Z"&amp;ROW()-1)+AA5)</f>
+        <f ca="1">SUM(INDIRECT("AA"&amp;ROW()-1)+AA5)</f>
         <v>0</v>
       </c>
       <c r="AB8" s="55">
-        <f ca="1">SUM(INDIRECT("AA"&amp;ROW()-1)+AB5)</f>
+        <f ca="1">SUM(INDIRECT("AB"&amp;ROW()-1)+AB5)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="55">
-        <f ca="1">SUM(INDIRECT("AB"&amp;ROW()-1)+AC5)</f>
+        <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+AC5)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="55">
-        <f ca="1">SUM(INDIRECT("AC"&amp;ROW()-1)+AD5)</f>
+        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+AD5)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="55"/>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDCFFD2-CA38-42F8-8E9A-DA5ED01F8176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC428CBD-E437-4DCC-82BB-84A2D34F0D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4121,7 +4121,7 @@
       <pane xSplit="13" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="55">
-        <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+AD5)</f>
+        <f ca="1">SUM(INDIRECT("AD"&amp;ROW()-1)+AD5)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="55"/>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC428CBD-E437-4DCC-82BB-84A2D34F0D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D183B-9BEB-47D3-9974-02520F3AD494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -195,13 +195,7 @@
     <t>Из них  по возрастам гр.3</t>
   </si>
   <si>
-    <t>Всего выдано справок (25+26+27)      гр.3</t>
-  </si>
-  <si>
     <t>По отраслям гр.2</t>
-  </si>
-  <si>
-    <t>Всего выдано книг (абонемент+читальный зал; (13-23) гр.2</t>
   </si>
   <si>
     <t>Электронные ресурсы</t>
@@ -211,9 +205,6 @@
   </si>
   <si>
     <t>Из них по возрастам гр.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (7+8+9+10+11)      гр.1 </t>
   </si>
   <si>
     <t>Молодежь (15-30 л.)</t>
@@ -226,6 +217,15 @@
   </si>
   <si>
     <t>Всего в стенах библиотеки  (11+12+13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (8+9+10+11+12)      гр.1 </t>
+  </si>
+  <si>
+    <t>Всего выдано книг (абонемент+читальный зал; (14-24) гр.2</t>
+  </si>
+  <si>
+    <t>Всего выдано справок (26+27+28)      гр.3</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -682,24 +682,39 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -716,6 +731,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,6 +759,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,31 +790,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,7 +1116,7 @@
       <pane xSplit="21" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:U1"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1134,119 +1137,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
     </row>
     <row r="2" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="68" t="s">
+      <c r="A2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="68" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="73" t="s">
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="76" t="s">
+      <c r="U2" s="81" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="71"/>
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="97" t="s">
+      <c r="I3" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="83"/>
+      <c r="K3" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="97"/>
-      <c r="N3" s="98"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
       <c r="O3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="101" t="s">
+      <c r="Q3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="78"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
+      <c r="R3" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="83"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
     </row>
     <row r="4" spans="1:21" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>11</v>
@@ -1254,22 +1257,22 @@
       <c r="G4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="96" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="65" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O4" s="26" t="s">
         <v>11</v>
@@ -1277,15 +1280,15 @@
       <c r="P4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="102"/>
+      <c r="Q4" s="69"/>
       <c r="R4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="S4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -1309,7 +1312,7 @@
       <c r="G5" s="27">
         <v>7</v>
       </c>
-      <c r="H5" s="103">
+      <c r="H5" s="66">
         <v>9</v>
       </c>
       <c r="I5" s="16">
@@ -1336,7 +1339,7 @@
       <c r="P5" s="27">
         <v>15</v>
       </c>
-      <c r="Q5" s="103">
+      <c r="Q5" s="66">
         <v>16</v>
       </c>
       <c r="R5" s="18">
@@ -1385,7 +1388,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
-      <c r="H7" s="104"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="11"/>
@@ -1394,7 +1397,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
-      <c r="Q7" s="104"/>
+      <c r="Q7" s="67"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="10"/>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="23">
-        <f t="shared" ref="I9:T9" ca="1" si="0">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
+        <f t="shared" ref="I9" ca="1" si="0">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
         <v>0</v>
       </c>
       <c r="J9" s="23">
@@ -4088,6 +4091,8 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -4099,8 +4104,6 @@
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="R2:S2"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="H3:H4"/>
@@ -4117,11 +4120,11 @@
   </sheetPr>
   <dimension ref="A1:AE3064"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,100 +4142,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="92"/>
+      <c r="W1" s="92"/>
+      <c r="X1" s="92"/>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
     </row>
     <row r="2" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="79" t="s">
+      <c r="H2" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="70" t="s">
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="Z2" s="65" t="s">
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="86"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="93"/>
       <c r="AC2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="99" t="s">
+      <c r="AD2" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="65" t="s">
+      <c r="AE2" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
@@ -4245,7 +4248,7 @@
       <c r="F3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="100"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="62" t="s">
         <v>52</v>
       </c>
@@ -4261,7 +4264,7 @@
       <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="67"/>
+      <c r="M3" s="72"/>
       <c r="N3" s="62" t="s">
         <v>47</v>
       </c>
@@ -4295,7 +4298,7 @@
       <c r="X3" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="67"/>
+      <c r="Y3" s="72"/>
       <c r="Z3" s="21" t="s">
         <v>10</v>
       </c>
@@ -4308,8 +4311,8 @@
       <c r="AC3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="67"/>
+      <c r="AD3" s="95"/>
+      <c r="AE3" s="72"/>
     </row>
     <row r="4" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
@@ -4331,79 +4334,79 @@
         <v>6</v>
       </c>
       <c r="G4" s="59">
+        <v>7</v>
+      </c>
+      <c r="H4" s="105">
+        <v>8</v>
+      </c>
+      <c r="I4" s="105">
+        <v>9</v>
+      </c>
+      <c r="J4" s="105">
+        <v>10</v>
+      </c>
+      <c r="K4" s="105">
+        <v>11</v>
+      </c>
+      <c r="L4" s="105">
+        <v>12</v>
+      </c>
+      <c r="M4" s="60">
+        <v>13</v>
+      </c>
+      <c r="N4" s="105">
+        <v>14</v>
+      </c>
+      <c r="O4" s="105">
+        <v>15</v>
+      </c>
+      <c r="P4" s="105">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="105">
+        <v>17</v>
+      </c>
+      <c r="R4" s="105">
+        <v>18</v>
+      </c>
+      <c r="S4" s="105">
+        <v>19</v>
+      </c>
+      <c r="T4" s="105">
+        <v>20</v>
+      </c>
+      <c r="U4" s="105">
+        <v>21</v>
+      </c>
+      <c r="V4" s="105">
+        <v>22</v>
+      </c>
+      <c r="W4" s="105">
+        <v>23</v>
+      </c>
+      <c r="X4" s="105">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="60">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="105">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="105">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="105">
+        <v>28</v>
+      </c>
+      <c r="AC4" s="59">
         <v>29</v>
       </c>
-      <c r="H4" s="30">
-        <v>7</v>
-      </c>
-      <c r="I4" s="30">
-        <v>8</v>
-      </c>
-      <c r="J4" s="30">
-        <v>9</v>
-      </c>
-      <c r="K4" s="30">
-        <v>10</v>
-      </c>
-      <c r="L4" s="30">
-        <v>11</v>
-      </c>
-      <c r="M4" s="60">
-        <v>12</v>
-      </c>
-      <c r="N4" s="30">
-        <v>13</v>
-      </c>
-      <c r="O4" s="30">
-        <v>14</v>
-      </c>
-      <c r="P4" s="30">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="30">
-        <v>16</v>
-      </c>
-      <c r="R4" s="30">
-        <v>17</v>
-      </c>
-      <c r="S4" s="30">
-        <v>18</v>
-      </c>
-      <c r="T4" s="30">
-        <v>19</v>
-      </c>
-      <c r="U4" s="30">
-        <v>20</v>
-      </c>
-      <c r="V4" s="30">
-        <v>21</v>
-      </c>
-      <c r="W4" s="30">
-        <v>22</v>
-      </c>
-      <c r="X4" s="30">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="60">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="30">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="30">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="30">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="30">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="30">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="30">
+      <c r="AD4" s="59">
         <v>30</v>
+      </c>
+      <c r="AE4" s="105">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="61" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7834,11 +7837,11 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="14" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7847,71 +7850,71 @@
     <col min="2" max="2" width="81.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="13" width="23.5703125" customWidth="1"/>
     <col min="14" max="14" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-    </row>
-    <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+    <row r="1" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="79"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+    </row>
+    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="91" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="88" t="s">
+      <c r="N2" s="97" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="94"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="31" t="s">
         <v>10</v>
       </c>
@@ -7930,9 +7933,9 @@
       <c r="K3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D183B-9BEB-47D3-9974-02520F3AD494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E89D3B-A695-4BE4-BB0D-50CE55C936BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -498,11 +498,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -691,14 +713,20 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -725,18 +753,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -790,8 +806,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,11 +1146,11 @@
   </sheetPr>
   <dimension ref="A1:U203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="21" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3:H4"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1137,111 +1171,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
     </row>
     <row r="2" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="76" t="s">
+      <c r="A2" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="70" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="78" t="s">
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="81" t="s">
+      <c r="U2" s="83" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="83"/>
-      <c r="K3" s="73" t="s">
+      <c r="J3" s="70"/>
+      <c r="K3" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="84" t="s">
+      <c r="L3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="25" t="s">
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
     </row>
     <row r="4" spans="1:21" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
@@ -1257,14 +1291,14 @@
       <c r="G4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="73"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="65" t="s">
         <v>10</v>
       </c>
@@ -1280,15 +1314,15 @@
       <c r="P4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="69"/>
+      <c r="Q4" s="72"/>
       <c r="R4" s="21" t="s">
         <v>51</v>
       </c>
       <c r="S4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -4090,12 +4124,7 @@
       <c r="T203" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="15">
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="T2:T4"/>
@@ -4107,6 +4136,10 @@
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait"/>
@@ -4142,100 +4175,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="92"/>
-      <c r="W1" s="92"/>
-      <c r="X1" s="92"/>
-      <c r="Y1" s="92"/>
-      <c r="Z1" s="92"/>
-      <c r="AA1" s="92"/>
-      <c r="AB1" s="92"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
     </row>
     <row r="2" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="89" t="s">
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="73" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="70" t="s">
+      <c r="Z2" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="93"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="91"/>
       <c r="AC2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="94" t="s">
+      <c r="AD2" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="70" t="s">
+      <c r="AE2" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
@@ -4248,7 +4281,7 @@
       <c r="F3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="93"/>
       <c r="H3" s="62" t="s">
         <v>52</v>
       </c>
@@ -4264,7 +4297,7 @@
       <c r="L3" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="72"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="62" t="s">
         <v>47</v>
       </c>
@@ -4298,7 +4331,7 @@
       <c r="X3" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="72"/>
+      <c r="Y3" s="74"/>
       <c r="Z3" s="21" t="s">
         <v>10</v>
       </c>
@@ -4311,8 +4344,8 @@
       <c r="AC3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="72"/>
+      <c r="AD3" s="93"/>
+      <c r="AE3" s="74"/>
     </row>
     <row r="4" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
@@ -4336,67 +4369,67 @@
       <c r="G4" s="59">
         <v>7</v>
       </c>
-      <c r="H4" s="105">
+      <c r="H4" s="30">
         <v>8</v>
       </c>
-      <c r="I4" s="105">
+      <c r="I4" s="30">
         <v>9</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="30">
         <v>10</v>
       </c>
-      <c r="K4" s="105">
+      <c r="K4" s="30">
         <v>11</v>
       </c>
-      <c r="L4" s="105">
+      <c r="L4" s="30">
         <v>12</v>
       </c>
       <c r="M4" s="60">
         <v>13</v>
       </c>
-      <c r="N4" s="105">
+      <c r="N4" s="30">
         <v>14</v>
       </c>
-      <c r="O4" s="105">
+      <c r="O4" s="30">
         <v>15</v>
       </c>
-      <c r="P4" s="105">
+      <c r="P4" s="30">
         <v>16</v>
       </c>
-      <c r="Q4" s="105">
+      <c r="Q4" s="30">
         <v>17</v>
       </c>
-      <c r="R4" s="105">
+      <c r="R4" s="30">
         <v>18</v>
       </c>
-      <c r="S4" s="105">
+      <c r="S4" s="30">
         <v>19</v>
       </c>
-      <c r="T4" s="105">
+      <c r="T4" s="30">
         <v>20</v>
       </c>
-      <c r="U4" s="105">
+      <c r="U4" s="30">
         <v>21</v>
       </c>
-      <c r="V4" s="105">
+      <c r="V4" s="30">
         <v>22</v>
       </c>
-      <c r="W4" s="105">
+      <c r="W4" s="30">
         <v>23</v>
       </c>
-      <c r="X4" s="105">
+      <c r="X4" s="30">
         <v>24</v>
       </c>
       <c r="Y4" s="60">
         <v>25</v>
       </c>
-      <c r="Z4" s="105">
+      <c r="Z4" s="30">
         <v>26</v>
       </c>
-      <c r="AA4" s="105">
+      <c r="AA4" s="30">
         <v>27</v>
       </c>
-      <c r="AB4" s="105">
+      <c r="AB4" s="30">
         <v>28</v>
       </c>
       <c r="AC4" s="59">
@@ -4405,7 +4438,7 @@
       <c r="AD4" s="59">
         <v>30</v>
       </c>
-      <c r="AE4" s="105">
+      <c r="AE4" s="30">
         <v>31</v>
       </c>
     </row>
@@ -7837,7 +7870,7 @@
   </sheetPr>
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane xSplit="14" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -7858,63 +7891,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
     </row>
     <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="104" t="s">
+      <c r="F2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="100" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="96" t="s">
+      <c r="J2" s="79"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="97" t="s">
+      <c r="N2" s="95" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="103"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="31" t="s">
         <v>10</v>
       </c>
@@ -7933,9 +7966,9 @@
       <c r="K3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -1,23 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E89D3B-A695-4BE4-BB0D-50CE55C936BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAFCFBB-09A4-480D-ACCB-66B51A057A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
     <sheet name="Книговыдача" sheetId="3" r:id="rId2"/>
     <sheet name="Массовые мероприятия" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -31,9 +42,6 @@
   </si>
   <si>
     <t>Количество посещений пользователей для получения инф-биб.услуг в стенах библиотеки (абонемент+читальный зал)</t>
-  </si>
-  <si>
-    <t>Количество обращений удаленных пользователей (интернет, телефон, соц. сети, мессенджеры, сайт)</t>
   </si>
   <si>
     <t>Примечание</t>
@@ -226,6 +234,9 @@
   </si>
   <si>
     <t>Всего выдано справок (26+27+28)      гр.3</t>
+  </si>
+  <si>
+    <t>Количество обращений удаленных пользователей (интернет, соц. сети, мессенджеры, сайт)</t>
   </si>
 </sst>
 </file>
@@ -713,25 +724,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,6 +740,8 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +749,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,27 +837,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,7 +1161,7 @@
       <pane xSplit="21" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1171,158 +1182,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
     </row>
     <row r="2" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="78" t="s">
+      <c r="A2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="78" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="80" t="s">
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="83" t="s">
+    </row>
+    <row r="3" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74"/>
+      <c r="B3" s="86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="75" t="s">
+      <c r="C3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="80"/>
+      <c r="K3" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="106" t="s">
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="108" t="s">
+      <c r="P3" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="82"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+    </row>
+    <row r="4" spans="1:21" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="D4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="86"/>
+      <c r="L4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="103" t="s">
-        <v>63</v>
-      </c>
-      <c r="S3" s="104"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-    </row>
-    <row r="4" spans="1:21" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="21" t="s">
+      <c r="M4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="P4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="72"/>
-      <c r="I4" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="21" t="s">
+      <c r="Q4" s="88"/>
+      <c r="R4" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="S4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
+        <v>49</v>
+      </c>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
     </row>
     <row r="5" spans="1:21" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -1391,7 +1402,7 @@
     </row>
     <row r="6" spans="1:21" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="8"/>
@@ -1439,7 +1450,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="7">
         <f ca="1">SUM(INDIRECT("B7:B"&amp;ROW()-1))</f>
@@ -1521,7 +1532,7 @@
     </row>
     <row r="9" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="23">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B6)</f>
@@ -4175,177 +4186,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
     </row>
     <row r="2" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="92" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="87" t="s">
+      <c r="N2" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="84" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="91"/>
+      <c r="Z2" s="90" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="98"/>
       <c r="AC2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="75"/>
+      <c r="N3" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="R3" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD3" s="93"/>
-      <c r="AE3" s="74"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="75"/>
     </row>
     <row r="4" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
@@ -4444,7 +4455,7 @@
     </row>
     <row r="5" spans="1:31" s="61" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -4512,7 +4523,7 @@
     </row>
     <row r="7" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="57">
         <f ca="1">SUM(INDIRECT("B6:B"&amp;ROW()-1))</f>
@@ -4634,7 +4645,7 @@
     </row>
     <row r="8" spans="1:31" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="55">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B5)</f>
@@ -7891,84 +7902,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
     </row>
     <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="C2" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="D2" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="E2" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="F2" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="98" t="s">
+      <c r="J2" s="72"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="94" t="s">
+      <c r="M2" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="94" t="s">
+      <c r="N2" s="102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="31" t="s">
+      <c r="H3" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="32" t="s">
+      <c r="K3" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
     </row>
     <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
@@ -8016,7 +8027,7 @@
     </row>
     <row r="5" spans="1:14" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -8029,7 +8040,7 @@
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
       <c r="L5" s="36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="36"/>
       <c r="N5" s="38"/>
@@ -8052,7 +8063,7 @@
     </row>
     <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -8089,14 +8100,14 @@
         <v>0</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -8133,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8" s="49"/>
       <c r="N8" s="52"/>

--- a/apps/reports/excell/report_all_template.xlsx
+++ b/apps/reports/excell/report_all_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\erp\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAFCFBB-09A4-480D-ACCB-66B51A057A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA476679-538F-41C1-A953-7419A5B3A15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Примечание</t>
-  </si>
-  <si>
-    <t>ВСЕГО (3+4+5)</t>
   </si>
   <si>
     <t>Общее число новых гр.1</t>
@@ -98,9 +95,6 @@
     <t>Кол-во мероприятий</t>
   </si>
   <si>
-    <t>Всего  участников (7+8+ 9)  гр.1</t>
-  </si>
-  <si>
     <t>из них по возрастам</t>
   </si>
   <si>
@@ -111,12 +105,6 @@
   </si>
   <si>
     <t>Платное</t>
-  </si>
-  <si>
-    <t>Молодежь (до 30 л.)</t>
-  </si>
-  <si>
-    <t>Прочие</t>
   </si>
   <si>
     <t>Инвалиды</t>
@@ -135,12 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">Инвалиды </t>
-  </si>
-  <si>
-    <t>Прочие (30+)</t>
-  </si>
-  <si>
-    <t>Молодежь (14+)</t>
   </si>
   <si>
     <t>Краеведение</t>
@@ -194,9 +176,6 @@
     <t xml:space="preserve"> инвалиды (В общем числе)</t>
   </si>
   <si>
-    <t>Молодежь (14-30 л.)</t>
-  </si>
-  <si>
     <t>Из гр.3</t>
   </si>
   <si>
@@ -215,28 +194,43 @@
     <t>Из них по возрастам гр.1</t>
   </si>
   <si>
-    <t>Молодежь (15-30 л.)</t>
-  </si>
-  <si>
-    <t>Прочие 30+</t>
-  </si>
-  <si>
     <t>Электронные</t>
   </si>
   <si>
-    <t>Всего в стенах библиотеки  (11+12+13)</t>
+    <t>Количество обращений удаленных пользователей (интернет, соц. сети, мессенджеры, сайт)</t>
   </si>
   <si>
-    <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+ Электронные ресурсы (8+9+10+11+12)      гр.1 </t>
+    <t>Молодежь (18-35 л.)</t>
   </si>
   <si>
-    <t>Всего выдано книг (абонемент+читальный зал; (14-24) гр.2</t>
+    <t>Прочие 35+</t>
   </si>
   <si>
-    <t>Всего выдано справок (26+27+28)      гр.3</t>
+    <t>15-17 л.</t>
   </si>
   <si>
-    <t>Количество обращений удаленных пользователей (интернет, соц. сети, мессенджеры, сайт)</t>
+    <t>Прочие (35+)</t>
+  </si>
+  <si>
+    <t>Молодежь (18-35л.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего выдано книг (абонемент+читальный зал; 3+4+5+6+ Электронные ресурсы (9+10+11+12+13)      гр.1 </t>
+  </si>
+  <si>
+    <t>Всего выдано книг (абонемент+читальный зал; (14-25) гр.2</t>
+  </si>
+  <si>
+    <t>Всего выдано справок (27+28+29+30)      гр.3</t>
+  </si>
+  <si>
+    <t>ВСЕГО (3+4+5+6)</t>
+  </si>
+  <si>
+    <t>Всего в стенах библиотеки  (13+14+15+16)</t>
+  </si>
+  <si>
+    <t>Всего  участников (7+8+ 9+10)  гр.1</t>
   </si>
 </sst>
 </file>
@@ -246,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,13 +284,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -535,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -627,19 +614,19 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -668,10 +655,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,10 +672,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,13 +693,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,13 +714,19 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -745,13 +738,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,26 +774,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,21 +808,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,9 +851,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -896,7 +891,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1002,7 +997,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1144,7 +1139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1155,187 +1150,200 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U203"/>
+  <dimension ref="A1:W203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="21" ySplit="6" topLeftCell="V7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="23" ySplit="6" topLeftCell="X7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X1" sqref="X1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2:T4"/>
+      <selection pane="bottomRight" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
-    <col min="3" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="8.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="4" customWidth="1"/>
-    <col min="12" max="14" width="8.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.42578125" style="3" customWidth="1"/>
-    <col min="18" max="19" width="8.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" style="1" customWidth="1"/>
-    <col min="22" max="30" width="9.140625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="4" customWidth="1"/>
+    <col min="13" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.42578125" style="3" customWidth="1"/>
+    <col min="20" max="21" width="8.7109375" style="3" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="25.140625" style="1" customWidth="1"/>
+    <col min="25" max="32" width="9.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-    </row>
-    <row r="2" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+    </row>
+    <row r="2" spans="1:23" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="71" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="78" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+    <row r="3" spans="1:23" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
       <c r="B3" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="25" t="s">
+      <c r="H3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="80"/>
+      <c r="L3" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="80"/>
-      <c r="K3" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="83" t="s">
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="68" t="s">
+      <c r="R3" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="82"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+    </row>
+    <row r="4" spans="1:23" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="D4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="82"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-    </row>
-    <row r="4" spans="1:21" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="21" t="s">
+      <c r="N4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="R4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="86"/>
-      <c r="L4" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-    </row>
-    <row r="5" spans="1:21" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="88"/>
+      <c r="T4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+    </row>
+    <row r="5" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>1</v>
       </c>
@@ -1351,58 +1359,64 @@
       <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="18">
         <v>6</v>
       </c>
       <c r="G5" s="27">
         <v>7</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="27">
+        <v>8</v>
+      </c>
+      <c r="I5" s="66">
         <v>9</v>
       </c>
-      <c r="I5" s="16">
-        <v>8</v>
-      </c>
       <c r="J5" s="16">
-        <v>9</v>
-      </c>
-      <c r="K5" s="19">
         <v>10</v>
       </c>
-      <c r="L5" s="18">
+      <c r="K5" s="16">
         <v>11</v>
       </c>
+      <c r="L5" s="19">
+        <v>12</v>
+      </c>
       <c r="M5" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N5" s="18">
+        <v>14</v>
+      </c>
+      <c r="O5" s="18">
+        <v>15</v>
+      </c>
+      <c r="P5" s="18">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>17</v>
+      </c>
+      <c r="R5" s="27">
+        <v>18</v>
+      </c>
+      <c r="S5" s="66">
+        <v>19</v>
+      </c>
+      <c r="T5" s="18">
+        <v>20</v>
+      </c>
+      <c r="U5" s="18">
+        <v>21</v>
+      </c>
+      <c r="V5" s="17">
+        <v>22</v>
+      </c>
+      <c r="W5" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="O5" s="27">
-        <v>14</v>
-      </c>
-      <c r="P5" s="27">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="66">
-        <v>16</v>
-      </c>
-      <c r="R5" s="18">
-        <v>17</v>
-      </c>
-      <c r="S5" s="18">
-        <v>18</v>
-      </c>
-      <c r="T5" s="17">
-        <v>19</v>
-      </c>
-      <c r="U5" s="18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="8"/>
@@ -1424,33 +1438,37 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="1:21" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="9"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="10"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="10"/>
+      <c r="W7" s="9"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7">
         <f ca="1">SUM(INDIRECT("B7:B"&amp;ROW()-1))</f>
@@ -1528,11 +1546,19 @@
         <f ca="1">SUM(INDIRECT("T7:T"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="U8" s="7">
+        <f ca="1">SUM(INDIRECT("U7:U"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7">
+        <f ca="1">SUM(INDIRECT("V7:V"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="23">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B6)</f>
@@ -1563,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="23">
-        <f t="shared" ref="I9" ca="1" si="0">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
+        <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
         <v>0</v>
       </c>
       <c r="J9" s="23">
@@ -1610,2550 +1636,2561 @@
         <f ca="1">SUM(INDIRECT("T"&amp;ROW()-1)+T6)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="23"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U9" s="23">
+        <f ca="1">SUM(INDIRECT("U"&amp;ROW()-1)+U6)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="23">
+        <f ca="1">SUM(INDIRECT("V"&amp;ROW()-1)+V6)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="23"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="L12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="L13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="L18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="L24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="L25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="L26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-      <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="L28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
-      <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="L32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
-      <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
-      <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
-      <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
-      <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
-      <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
-      <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
+      <c r="L38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
+      <c r="L40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
-      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="L42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
-      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="L43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="L44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
-      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="L45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
-      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="L46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
-      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="L47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
-      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
+      <c r="L48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="L49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
-      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
+      <c r="L50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
+      <c r="L51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
-      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="L52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
-      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
+      <c r="L53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
+      <c r="L54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
-      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
+      <c r="L55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
-      <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
+      <c r="L56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
-      <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
+      <c r="L57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="1"/>
+      <c r="V57" s="1"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
-      <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="L58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
-      <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="L59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
-      <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
+      <c r="L60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
-      <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="L61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="1"/>
+      <c r="V61" s="1"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
-      <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="L62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
-      <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="L63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
-      <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
+      <c r="L64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
-      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="L65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
-      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
+      <c r="L66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
-      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="L67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
-      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="L68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
-      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="L69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
-      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="L70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
-      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="L71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
-      <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="L72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="1"/>
+      <c r="V72" s="1"/>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
-      <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="L73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
-      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="L74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="1"/>
+      <c r="V74" s="1"/>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
-      <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
+      <c r="L75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
-      <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
+      <c r="L76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
-      <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
+      <c r="L77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="1"/>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
-      <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
+      <c r="L78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
-      <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
+      <c r="L79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
-      <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="L80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
-      <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
+      <c r="L81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+    </row>
+    <row r="82" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
-      <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
+      <c r="L82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+    </row>
+    <row r="83" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
-      <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
+      <c r="L83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+    </row>
+    <row r="84" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
-      <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="L84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
-    </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+    </row>
+    <row r="85" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
-      <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="L85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
-    </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="1"/>
+      <c r="V85" s="1"/>
+    </row>
+    <row r="86" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
-      <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
+      <c r="L86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+    </row>
+    <row r="87" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
-      <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1"/>
+      <c r="L87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
-      <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
+      <c r="L88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+    </row>
+    <row r="89" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1"/>
+      <c r="L89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+    </row>
+    <row r="90" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
-      <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
+      <c r="L90" s="1"/>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+    </row>
+    <row r="91" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
-      <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
+      <c r="L91" s="1"/>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+    </row>
+    <row r="92" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-      <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
+      <c r="L92" s="1"/>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="1"/>
+      <c r="V92" s="1"/>
+    </row>
+    <row r="93" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
-      <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
+      <c r="L93" s="1"/>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+    </row>
+    <row r="94" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
-      <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
+      <c r="L94" s="1"/>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="1"/>
+      <c r="V94" s="1"/>
+    </row>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
-      <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="L95" s="1"/>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+    </row>
+    <row r="96" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
-      <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
+      <c r="L96" s="1"/>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+    </row>
+    <row r="97" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
-      <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
+      <c r="L97" s="1"/>
       <c r="R97" s="1"/>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="1"/>
+      <c r="V97" s="1"/>
+    </row>
+    <row r="98" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
-      <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
+      <c r="L98" s="1"/>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="1"/>
+      <c r="V98" s="1"/>
+    </row>
+    <row r="99" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
-      <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
+      <c r="L99" s="1"/>
       <c r="R99" s="1"/>
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="1"/>
+      <c r="V99" s="1"/>
+    </row>
+    <row r="100" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
-      <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
+      <c r="L100" s="1"/>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
-    </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="1"/>
+      <c r="V100" s="1"/>
+    </row>
+    <row r="101" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
-      <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
+      <c r="L101" s="1"/>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
-    </row>
-    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+    </row>
+    <row r="102" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
-      <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
+      <c r="L102" s="1"/>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
-    </row>
-    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+    </row>
+    <row r="103" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
-      <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
+      <c r="L103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
-    </row>
-    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+    </row>
+    <row r="104" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
-      <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+      <c r="L104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
-    </row>
-    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+    </row>
+    <row r="105" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
-      <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
+      <c r="L105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
-    </row>
-    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+    </row>
+    <row r="106" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
-      <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
+      <c r="L106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
-    </row>
-    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+    </row>
+    <row r="107" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
-      <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
+      <c r="L107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
-    </row>
-    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+    </row>
+    <row r="108" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
-      <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
+      <c r="L108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
-    </row>
-    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+    </row>
+    <row r="109" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
-      <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
+      <c r="L109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
-    </row>
-    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+    </row>
+    <row r="110" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
-      <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
+      <c r="L110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
-    </row>
-    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+    </row>
+    <row r="111" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
-      <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
+      <c r="L111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
-    </row>
-    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+    </row>
+    <row r="112" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
-      <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
+      <c r="L112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
-    </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+    </row>
+    <row r="113" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
-      <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
+      <c r="L113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
-    </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+    </row>
+    <row r="114" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
-      <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
+      <c r="L114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
-    </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+    </row>
+    <row r="115" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
-      <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
+      <c r="L115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
-    </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+    </row>
+    <row r="116" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
-      <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
+      <c r="L116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
-    </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+    </row>
+    <row r="117" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
-      <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
+      <c r="L117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
-    </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+    </row>
+    <row r="118" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
-      <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
+      <c r="L118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
-    </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+    </row>
+    <row r="119" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
-      <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
+      <c r="L119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
-    </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+    </row>
+    <row r="120" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
-      <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
+      <c r="L120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
-    </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+    </row>
+    <row r="121" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
-      <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
+      <c r="L121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
-    </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+    </row>
+    <row r="122" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
-      <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
+      <c r="L122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
-    </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+    </row>
+    <row r="123" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
-      <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
+      <c r="L123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
-    </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+    </row>
+    <row r="124" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
-      <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
-      <c r="P124" s="1"/>
-      <c r="Q124" s="1"/>
+      <c r="L124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
-    </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+    </row>
+    <row r="125" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
-      <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
+      <c r="L125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
-    </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+    </row>
+    <row r="126" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
-      <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
+      <c r="L126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
-    </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+    </row>
+    <row r="127" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
-      <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
+      <c r="L127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
-    </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+    </row>
+    <row r="128" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
-      <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
+      <c r="L128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
-    </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+    </row>
+    <row r="129" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
-      <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
+      <c r="L129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
-    </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+    </row>
+    <row r="130" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
-      <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
+      <c r="L130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
-    </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+    </row>
+    <row r="131" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
-      <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
+      <c r="L131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
-    </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+    </row>
+    <row r="132" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
-      <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
+      <c r="L132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
-    </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+    </row>
+    <row r="133" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
-      <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
+      <c r="L133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
-    </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
-      <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
+      <c r="L134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+    </row>
+    <row r="135" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
-      <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
+      <c r="L135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
-    </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+    </row>
+    <row r="136" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
-      <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
+      <c r="L136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
-    </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+    </row>
+    <row r="137" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
-      <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
+      <c r="L137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
-    </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+    </row>
+    <row r="138" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
-      <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-      <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
+      <c r="L138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
-    </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+    </row>
+    <row r="139" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
-      <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
-      <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
+      <c r="L139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
-    </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+    </row>
+    <row r="140" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
-      <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
+      <c r="L140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
-    </row>
-    <row r="141" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+    </row>
+    <row r="141" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
-      <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
+      <c r="L141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
-    </row>
-    <row r="142" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+    </row>
+    <row r="142" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
-      <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
+      <c r="L142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
-    </row>
-    <row r="143" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+    </row>
+    <row r="143" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
-      <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
+      <c r="L143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
-    </row>
-    <row r="144" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U143" s="1"/>
+      <c r="V143" s="1"/>
+    </row>
+    <row r="144" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
-      <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
+      <c r="L144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
       <c r="T144" s="1"/>
-    </row>
-    <row r="145" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U144" s="1"/>
+      <c r="V144" s="1"/>
+    </row>
+    <row r="145" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
-      <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
+      <c r="L145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
       <c r="T145" s="1"/>
-    </row>
-    <row r="146" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U145" s="1"/>
+      <c r="V145" s="1"/>
+    </row>
+    <row r="146" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
-      <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
+      <c r="L146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
       <c r="T146" s="1"/>
-    </row>
-    <row r="147" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+    </row>
+    <row r="147" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
-      <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
+      <c r="L147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
       <c r="T147" s="1"/>
-    </row>
-    <row r="148" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U147" s="1"/>
+      <c r="V147" s="1"/>
+    </row>
+    <row r="148" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
-      <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
+      <c r="L148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
-    </row>
-    <row r="149" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U148" s="1"/>
+      <c r="V148" s="1"/>
+    </row>
+    <row r="149" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
-      <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
+      <c r="L149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
       <c r="T149" s="1"/>
-    </row>
-    <row r="150" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+    </row>
+    <row r="150" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
-      <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
+      <c r="L150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
       <c r="T150" s="1"/>
-    </row>
-    <row r="151" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U150" s="1"/>
+      <c r="V150" s="1"/>
+    </row>
+    <row r="151" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
-      <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
+      <c r="L151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
       <c r="T151" s="1"/>
-    </row>
-    <row r="152" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="1"/>
+      <c r="V151" s="1"/>
+    </row>
+    <row r="152" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
-      <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
+      <c r="L152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
       <c r="T152" s="1"/>
-    </row>
-    <row r="153" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+    </row>
+    <row r="153" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
-      <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
+      <c r="L153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
       <c r="T153" s="1"/>
-    </row>
-    <row r="154" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U153" s="1"/>
+      <c r="V153" s="1"/>
+    </row>
+    <row r="154" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
-      <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
+      <c r="L154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
       <c r="T154" s="1"/>
-    </row>
-    <row r="155" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U154" s="1"/>
+      <c r="V154" s="1"/>
+    </row>
+    <row r="155" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
-      <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
+      <c r="L155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
       <c r="T155" s="1"/>
-    </row>
-    <row r="156" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U155" s="1"/>
+      <c r="V155" s="1"/>
+    </row>
+    <row r="156" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
-      <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
+      <c r="L156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
       <c r="T156" s="1"/>
-    </row>
-    <row r="157" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U156" s="1"/>
+      <c r="V156" s="1"/>
+    </row>
+    <row r="157" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
-      <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
+      <c r="L157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
       <c r="T157" s="1"/>
-    </row>
-    <row r="158" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U157" s="1"/>
+      <c r="V157" s="1"/>
+    </row>
+    <row r="158" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
-      <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
-      <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
+      <c r="L158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
       <c r="T158" s="1"/>
-    </row>
-    <row r="159" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U158" s="1"/>
+      <c r="V158" s="1"/>
+    </row>
+    <row r="159" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
-      <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
-      <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
+      <c r="L159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
       <c r="T159" s="1"/>
-    </row>
-    <row r="160" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U159" s="1"/>
+      <c r="V159" s="1"/>
+    </row>
+    <row r="160" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
-      <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
-      <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
+      <c r="L160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
       <c r="T160" s="1"/>
-    </row>
-    <row r="161" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U160" s="1"/>
+      <c r="V160" s="1"/>
+    </row>
+    <row r="161" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
-      <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
-      <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
+      <c r="L161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
       <c r="T161" s="1"/>
-    </row>
-    <row r="162" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+    </row>
+    <row r="162" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
-      <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
+      <c r="L162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
       <c r="T162" s="1"/>
-    </row>
-    <row r="163" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+    </row>
+    <row r="163" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
-      <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
+      <c r="L163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
       <c r="T163" s="1"/>
-    </row>
-    <row r="164" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U163" s="1"/>
+      <c r="V163" s="1"/>
+    </row>
+    <row r="164" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
-      <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
+      <c r="L164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
       <c r="T164" s="1"/>
-    </row>
-    <row r="165" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U164" s="1"/>
+      <c r="V164" s="1"/>
+    </row>
+    <row r="165" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
-      <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
+      <c r="L165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
       <c r="T165" s="1"/>
-    </row>
-    <row r="166" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+    </row>
+    <row r="166" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
-      <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
+      <c r="L166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
       <c r="T166" s="1"/>
-    </row>
-    <row r="167" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+    </row>
+    <row r="167" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
-      <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
+      <c r="L167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
       <c r="T167" s="1"/>
-    </row>
-    <row r="168" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U167" s="1"/>
+      <c r="V167" s="1"/>
+    </row>
+    <row r="168" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
-      <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
+      <c r="L168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
       <c r="T168" s="1"/>
-    </row>
-    <row r="169" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U168" s="1"/>
+      <c r="V168" s="1"/>
+    </row>
+    <row r="169" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
-      <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
+      <c r="L169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
       <c r="T169" s="1"/>
-    </row>
-    <row r="170" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U169" s="1"/>
+      <c r="V169" s="1"/>
+    </row>
+    <row r="170" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
-      <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
+      <c r="L170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
       <c r="T170" s="1"/>
-    </row>
-    <row r="171" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U170" s="1"/>
+      <c r="V170" s="1"/>
+    </row>
+    <row r="171" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
-      <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
+      <c r="L171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
       <c r="T171" s="1"/>
-    </row>
-    <row r="172" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+    </row>
+    <row r="172" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
-      <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
+      <c r="L172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
       <c r="T172" s="1"/>
-    </row>
-    <row r="173" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
+    </row>
+    <row r="173" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
-      <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
+      <c r="L173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
-    </row>
-    <row r="174" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+    </row>
+    <row r="174" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
-      <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
+      <c r="L174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
       <c r="T174" s="1"/>
-    </row>
-    <row r="175" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+    </row>
+    <row r="175" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
-      <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
+      <c r="L175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
       <c r="T175" s="1"/>
-    </row>
-    <row r="176" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+    </row>
+    <row r="176" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
-      <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
+      <c r="L176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
       <c r="T176" s="1"/>
-    </row>
-    <row r="177" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+    </row>
+    <row r="177" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
-      <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
+      <c r="L177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
       <c r="T177" s="1"/>
-    </row>
-    <row r="178" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+    </row>
+    <row r="178" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
-      <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
+      <c r="L178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
       <c r="T178" s="1"/>
-    </row>
-    <row r="179" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+    </row>
+    <row r="179" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
-      <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
+      <c r="L179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
       <c r="T179" s="1"/>
-    </row>
-    <row r="180" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+    </row>
+    <row r="180" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
-      <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
+      <c r="L180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
       <c r="T180" s="1"/>
-    </row>
-    <row r="181" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U180" s="1"/>
+      <c r="V180" s="1"/>
+    </row>
+    <row r="181" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
-      <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
+      <c r="L181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
       <c r="T181" s="1"/>
-    </row>
-    <row r="182" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U181" s="1"/>
+      <c r="V181" s="1"/>
+    </row>
+    <row r="182" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
-      <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
-      <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
+      <c r="L182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
       <c r="T182" s="1"/>
-    </row>
-    <row r="183" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U182" s="1"/>
+      <c r="V182" s="1"/>
+    </row>
+    <row r="183" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
-      <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
-      <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
+      <c r="L183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
       <c r="T183" s="1"/>
-    </row>
-    <row r="184" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U183" s="1"/>
+      <c r="V183" s="1"/>
+    </row>
+    <row r="184" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
-      <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
-      <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
+      <c r="L184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
       <c r="T184" s="1"/>
-    </row>
-    <row r="185" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+    </row>
+    <row r="185" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
-      <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
-      <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
+      <c r="L185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
       <c r="T185" s="1"/>
-    </row>
-    <row r="186" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+    </row>
+    <row r="186" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
-      <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
+      <c r="L186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
       <c r="T186" s="1"/>
-    </row>
-    <row r="187" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+    </row>
+    <row r="187" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
-      <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
-      <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
+      <c r="L187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
       <c r="T187" s="1"/>
-    </row>
-    <row r="188" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+    </row>
+    <row r="188" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
-      <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
-      <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
+      <c r="L188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
       <c r="T188" s="1"/>
-    </row>
-    <row r="189" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+    </row>
+    <row r="189" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
-      <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
+      <c r="L189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
       <c r="T189" s="1"/>
-    </row>
-    <row r="190" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U189" s="1"/>
+      <c r="V189" s="1"/>
+    </row>
+    <row r="190" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
-      <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
-      <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
+      <c r="L190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
       <c r="T190" s="1"/>
-    </row>
-    <row r="191" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U190" s="1"/>
+      <c r="V190" s="1"/>
+    </row>
+    <row r="191" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
-      <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
-      <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
+      <c r="L191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
       <c r="T191" s="1"/>
-    </row>
-    <row r="192" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+    </row>
+    <row r="192" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
-      <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
+      <c r="L192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
       <c r="T192" s="1"/>
-    </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U192" s="1"/>
+      <c r="V192" s="1"/>
+    </row>
+    <row r="193" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
-      <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
+      <c r="L193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
       <c r="T193" s="1"/>
-    </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+    </row>
+    <row r="194" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
-      <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
+      <c r="L194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
       <c r="T194" s="1"/>
-    </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+    </row>
+    <row r="195" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
-      <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
-      <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
+      <c r="L195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
       <c r="T195" s="1"/>
-    </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+    </row>
+    <row r="196" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
-      <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
-      <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
+      <c r="L196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
       <c r="T196" s="1"/>
-    </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+    </row>
+    <row r="197" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
-      <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
-      <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
+      <c r="L197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
       <c r="T197" s="1"/>
-    </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+    </row>
+    <row r="198" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
-      <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
-      <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
+      <c r="L198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
       <c r="T198" s="1"/>
-    </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U198" s="1"/>
+      <c r="V198" s="1"/>
+    </row>
+    <row r="199" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
-      <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
-      <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
+      <c r="L199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
       <c r="T199" s="1"/>
-    </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+    </row>
+    <row r="200" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
-      <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
+      <c r="L200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
       <c r="T200" s="1"/>
-    </row>
-    <row r="201" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U200" s="1"/>
+      <c r="V200" s="1"/>
+    </row>
+    <row r="201" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
-      <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
-      <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
+      <c r="L201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
-    </row>
-    <row r="202" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U201" s="1"/>
+      <c r="V201" s="1"/>
+    </row>
+    <row r="202" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
-      <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
-      <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
+      <c r="L202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
       <c r="T202" s="1"/>
-    </row>
-    <row r="203" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+    </row>
+    <row r="203" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
-      <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
+      <c r="L203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
       <c r="T203" s="1"/>
+      <c r="U203" s="1"/>
+      <c r="V203" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="T2:T4"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="U2:U4"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="V2:V4"/>
+    <mergeCell ref="W2:W4"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="L2:U2"/>
+    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D8:D9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4162,30 +4199,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE3064"/>
+  <dimension ref="A1:AG3064"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="53" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="54" customWidth="1"/>
-    <col min="3" max="12" width="8.7109375" style="53" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" style="54" customWidth="1"/>
-    <col min="14" max="24" width="8.7109375" style="53" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" style="54" customWidth="1"/>
-    <col min="26" max="30" width="8.7109375" style="53" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" style="53" customWidth="1"/>
-    <col min="32" max="34" width="9.140625" style="53" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="53"/>
+    <col min="3" max="13" width="8.7109375" style="53" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" style="54" customWidth="1"/>
+    <col min="15" max="25" width="8.7109375" style="53" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" style="54" customWidth="1"/>
+    <col min="27" max="32" width="8.7109375" style="53" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="53" customWidth="1"/>
+    <col min="34" max="36" width="9.140625" style="53" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="96"/>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -4200,56 +4237,58 @@
       <c r="L1" s="96"/>
       <c r="M1" s="96"/>
       <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-    </row>
-    <row r="2" spans="1:31" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
+      <c r="Y1" s="96"/>
+      <c r="Z1" s="96"/>
+      <c r="AA1" s="96"/>
+      <c r="AB1" s="96"/>
+      <c r="AC1" s="96"/>
+      <c r="AD1" s="96"/>
+      <c r="AE1" s="96"/>
+      <c r="AF1" s="96"/>
+      <c r="AG1" s="96"/>
+    </row>
+    <row r="2" spans="1:33" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="94" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" s="92"/>
+        <v>60</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" s="91" t="s">
+        <v>49</v>
+      </c>
       <c r="P2" s="92"/>
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
@@ -4258,107 +4297,115 @@
       <c r="U2" s="92"/>
       <c r="V2" s="92"/>
       <c r="W2" s="92"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="90" t="s">
+      <c r="X2" s="92"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF2" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="99" t="s">
+      <c r="F3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="99"/>
+      <c r="I3" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="77"/>
+      <c r="O3" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="90" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="75"/>
-      <c r="N3" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="62" t="s">
-        <v>37</v>
-      </c>
       <c r="X3" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="21" t="s">
-        <v>9</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="Y3" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="77"/>
       <c r="AA3" s="21" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="75"/>
-    </row>
-    <row r="4" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="77"/>
+    </row>
+    <row r="4" spans="1:33" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>1</v>
       </c>
@@ -4368,19 +4415,19 @@
       <c r="C4" s="30">
         <v>3</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="69">
         <v>4</v>
       </c>
       <c r="E4" s="30">
         <v>5</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="30">
         <v>6</v>
       </c>
       <c r="G4" s="59">
         <v>7</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="59">
         <v>8</v>
       </c>
       <c r="I4" s="30">
@@ -4395,10 +4442,10 @@
       <c r="L4" s="30">
         <v>12</v>
       </c>
-      <c r="M4" s="60">
+      <c r="M4" s="30">
         <v>13</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="60">
         <v>14</v>
       </c>
       <c r="O4" s="30">
@@ -4431,31 +4478,37 @@
       <c r="X4" s="30">
         <v>24</v>
       </c>
-      <c r="Y4" s="60">
+      <c r="Y4" s="30">
         <v>25</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="60">
         <v>26</v>
       </c>
       <c r="AA4" s="30">
         <v>27</v>
       </c>
-      <c r="AB4" s="30">
+      <c r="AB4" s="69">
         <v>28</v>
       </c>
-      <c r="AC4" s="59">
+      <c r="AC4" s="30">
         <v>29</v>
       </c>
-      <c r="AD4" s="59">
+      <c r="AD4" s="30">
         <v>30</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="59">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="61" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF4" s="59">
+        <v>32</v>
+      </c>
+      <c r="AG4" s="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="61" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -4487,22 +4540,24 @@
       <c r="AC5" s="57"/>
       <c r="AD5" s="57"/>
       <c r="AE5" s="57"/>
-    </row>
-    <row r="6" spans="1:31" s="58" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+    </row>
+    <row r="6" spans="1:33" s="58" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="60"/>
       <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="30"/>
-      <c r="F6" s="59"/>
+      <c r="F6" s="30"/>
       <c r="G6" s="59"/>
-      <c r="H6" s="30"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="60"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
@@ -4513,17 +4568,19 @@
       <c r="V6" s="30"/>
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="60"/>
       <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="59"/>
-      <c r="AE6" s="30"/>
-    </row>
-    <row r="7" spans="1:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="59"/>
+      <c r="AF6" s="59"/>
+      <c r="AG6" s="30"/>
+    </row>
+    <row r="7" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="57">
         <f ca="1">SUM(INDIRECT("B6:B"&amp;ROW()-1))</f>
@@ -4641,11 +4698,19 @@
         <f ca="1">SUM(INDIRECT("AD6:AD"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="AE7" s="57"/>
-    </row>
-    <row r="8" spans="1:31" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="AE7" s="57">
+        <f ca="1">SUM(INDIRECT("AE6:AE"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="57">
+        <f ca="1">SUM(INDIRECT("AF6:AF"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="57"/>
+    </row>
+    <row r="8" spans="1:33" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="55">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B5)</f>
@@ -4763,47 +4828,55 @@
         <f ca="1">SUM(INDIRECT("AD"&amp;ROW()-1)+AD5)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="55"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AE8" s="55">
+        <f ca="1">SUM(INDIRECT("AE"&amp;ROW()-1)+AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="55">
+        <f ca="1">SUM(INDIRECT("AF"&amp;ROW()-1)+AF5)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="55"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="Y9" s="53"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N9" s="53"/>
+      <c r="Z9" s="53"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="Y10" s="53"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N10" s="53"/>
+      <c r="Z10" s="53"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="Y11" s="53"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N11" s="53"/>
+      <c r="Z11" s="53"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="Y12" s="53"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N12" s="53"/>
+      <c r="Z12" s="53"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="Y13" s="53"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N13" s="53"/>
+      <c r="Z13" s="53"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="Y14" s="53"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N14" s="53"/>
+      <c r="Z14" s="53"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="Y15" s="53"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="N15" s="53"/>
+      <c r="Z15" s="53"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="Y16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="Z16" s="53"/>
     </row>
     <row r="17" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -7855,22 +7928,25 @@
     <row r="3064" s="53" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="O2:Y2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="V1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D7:D8" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -7879,13 +7955,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="14" ySplit="5" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane xSplit="15" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:E3"/>
+      <selection pane="bottomRight" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7895,93 +7971,98 @@
     <col min="3" max="3" width="40" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="14" width="37" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-    </row>
-    <row r="2" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+    <row r="1" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+    </row>
+    <row r="2" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="C2" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="D2" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="E2" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="G2" s="109"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="105" t="s">
+      <c r="N2" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="101" t="s">
+      <c r="O2" s="101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="101" t="s">
+      <c r="K3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="102" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-    </row>
-    <row r="4" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+    </row>
+    <row r="4" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33">
         <v>1</v>
       </c>
@@ -8000,13 +8081,13 @@
       <c r="F4" s="33">
         <v>7</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="71">
         <v>8</v>
       </c>
       <c r="H4" s="33">
         <v>9</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="33">
         <v>10</v>
       </c>
       <c r="J4" s="63">
@@ -8015,7 +8096,7 @@
       <c r="K4" s="63">
         <v>12</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="63">
         <v>13</v>
       </c>
       <c r="M4" s="33">
@@ -8024,10 +8105,13 @@
       <c r="N4" s="33">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="34"/>
       <c r="C5" s="35"/>
@@ -8037,15 +8121,16 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="37"/>
-      <c r="L5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="37"/>
+      <c r="M5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="36"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:15" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -8054,16 +8139,17 @@
       <c r="F6" s="42"/>
       <c r="G6" s="42"/>
       <c r="H6" s="42"/>
-      <c r="I6" s="44"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
-      <c r="L6" s="45"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="45"/>
       <c r="N6" s="45"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -8099,15 +8185,19 @@
         <f ca="1">SUM(INDIRECT("K6:K"&amp;ROW()-1))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="47">
+        <f ca="1">SUM(INDIRECT("L6:L"&amp;ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -8135,7 +8225,7 @@
         <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I5)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="50">
         <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J5)</f>
         <v>0</v>
       </c>
@@ -8143,32 +8233,36 @@
         <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K5)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="49"/>
-      <c r="N8" s="52"/>
+      <c r="L8" s="51">
+        <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L5)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="49"/>
+      <c r="O8" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:N1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="G1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="7" man="1"/>
-    <brk id="7" max="7" man="1"/>
+    <brk id="8" max="7" man="1"/>
   </colBreaks>
 </worksheet>
 </file>